--- a/Lab_3/Segway_files/Outputs/output3.xlsx
+++ b/Lab_3/Segway_files/Outputs/output3.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>778.0436861259788</v>
+        <v>9939.379111987824</v>
       </c>
       <c r="C2">
-        <v>208.7488443923234</v>
+        <v>9824.845996802425</v>
       </c>
       <c r="D2">
-        <v>0.006948328576913172</v>
+        <v>-0.0102199715508572</v>
       </c>
       <c r="E2">
-        <v>0.01859822705627812</v>
+        <v>0.005690211084733397</v>
       </c>
       <c r="F2">
-        <v>-1.022463400613751</v>
+        <v>-0.9778487177375228</v>
       </c>
       <c r="G2">
-        <v>199.994</v>
+        <v>9999.966</v>
       </c>
       <c r="H2">
-        <v>776.2</v>
+        <v>9994.957</v>
       </c>
       <c r="I2">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,28 +438,28 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>802.1371079937601</v>
+        <v>9907.589171414931</v>
       </c>
       <c r="C3">
-        <v>253.0523334352154</v>
+        <v>10228.2846875601</v>
       </c>
       <c r="D3">
-        <v>0.003016829582016409</v>
+        <v>-0.006658258672005736</v>
       </c>
       <c r="E3">
-        <v>-0.02541188330298428</v>
+        <v>-0.01080762697629125</v>
       </c>
       <c r="F3">
-        <v>-1.0346293711903</v>
+        <v>-1.000190485726978</v>
       </c>
       <c r="G3">
-        <v>199.9941056760537</v>
+        <v>9999.96599423766</v>
       </c>
       <c r="H3">
-        <v>776.0437500357358</v>
+        <v>9993.388250000011</v>
       </c>
       <c r="I3">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -467,28 +467,28 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>786.8181432009716</v>
+        <v>9664.564797515321</v>
       </c>
       <c r="C4">
-        <v>195.4244721559934</v>
+        <v>9723.027392070029</v>
       </c>
       <c r="D4">
-        <v>-0.001119843916596751</v>
+        <v>-0.007157015090739571</v>
       </c>
       <c r="E4">
-        <v>-0.01658372847017125</v>
+        <v>-0.02372085115910882</v>
       </c>
       <c r="F4">
-        <v>-0.991872748030913</v>
+        <v>-0.9920220414400442</v>
       </c>
       <c r="G4">
-        <v>199.994317028161</v>
+        <v>9999.96598271298</v>
       </c>
       <c r="H4">
-        <v>775.7312501072073</v>
+        <v>9990.250750000032</v>
       </c>
       <c r="I4">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -496,28 +496,28 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>744.5591555993199</v>
+        <v>10080.83557910288</v>
       </c>
       <c r="C5">
-        <v>202.3666824267925</v>
+        <v>9762.757129659736</v>
       </c>
       <c r="D5">
-        <v>0.007087820535800469</v>
+        <v>0.008659781043363879</v>
       </c>
       <c r="E5">
-        <v>0.01807123857974393</v>
+        <v>0.009367060834295594</v>
       </c>
       <c r="F5">
-        <v>-1.016072892866954</v>
+        <v>-0.9913544525458456</v>
       </c>
       <c r="G5">
-        <v>199.9946340563219</v>
+        <v>9999.965965425958</v>
       </c>
       <c r="H5">
-        <v>775.2625002144147</v>
+        <v>9985.544500000064</v>
       </c>
       <c r="I5">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -525,28 +525,28 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>765.5444822359465</v>
+        <v>9984.570141821243</v>
       </c>
       <c r="C6">
-        <v>190.2073322122692</v>
+        <v>9848.961354357964</v>
       </c>
       <c r="D6">
-        <v>-0.002640165220245684</v>
+        <v>0.004163849406091313</v>
       </c>
       <c r="E6">
-        <v>-0.009805886703458461</v>
+        <v>0.003262659313015575</v>
       </c>
       <c r="F6">
-        <v>-1.00709410394242</v>
+        <v>-0.9846438024074406</v>
       </c>
       <c r="G6">
-        <v>199.9950567605365</v>
+        <v>9999.965942376595</v>
       </c>
       <c r="H6">
-        <v>774.6375003573578</v>
+        <v>9979.269500000106</v>
       </c>
       <c r="I6">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -554,28 +554,28 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>788.7740452207379</v>
+        <v>9745.585078486683</v>
       </c>
       <c r="C7">
-        <v>186.611054607952</v>
+        <v>10147.14470683073</v>
       </c>
       <c r="D7">
-        <v>0.002012935234525087</v>
+        <v>-0.002077713847994339</v>
       </c>
       <c r="E7">
-        <v>0.007807405036945948</v>
+        <v>0.02438818290481954</v>
       </c>
       <c r="F7">
-        <v>-0.9825578614451175</v>
+        <v>-1.02633315043182</v>
       </c>
       <c r="G7">
-        <v>199.9955851408047</v>
+        <v>9999.965913564893</v>
       </c>
       <c r="H7">
-        <v>773.8562505360367</v>
+        <v>9971.425750000159</v>
       </c>
       <c r="I7">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -583,28 +583,28 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>792.1926000141007</v>
+        <v>10082.76390375065</v>
       </c>
       <c r="C8">
-        <v>235.4751010278399</v>
+        <v>10133.32424706741</v>
       </c>
       <c r="D8">
-        <v>0.003204084352678412</v>
+        <v>-0.002447590954151205</v>
       </c>
       <c r="E8">
-        <v>0.02733699010209187</v>
+        <v>0.005115650131654774</v>
       </c>
       <c r="F8">
-        <v>-0.9706065799193483</v>
+        <v>-1.024741623182492</v>
       </c>
       <c r="G8">
-        <v>199.9962191971266</v>
+        <v>9999.96587899085</v>
       </c>
       <c r="H8">
-        <v>772.9187507504513</v>
+        <v>9962.013250000222</v>
       </c>
       <c r="I8">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -612,28 +612,28 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>763.9790159324626</v>
+        <v>9932.76990470276</v>
       </c>
       <c r="C9">
-        <v>215.3730131683028</v>
+        <v>9863.158403469088</v>
       </c>
       <c r="D9">
-        <v>0.007543167300876643</v>
+        <v>0.0003201873197684558</v>
       </c>
       <c r="E9">
-        <v>-0.03372780506491804</v>
+        <v>0.02400046444664393</v>
       </c>
       <c r="F9">
-        <v>-1.015611053761026</v>
+        <v>-0.9579370042766695</v>
       </c>
       <c r="G9">
-        <v>199.9969589295021</v>
+        <v>9999.965838654467</v>
       </c>
       <c r="H9">
-        <v>771.8250010006017</v>
+        <v>9951.032000000296</v>
       </c>
       <c r="I9">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -641,28 +641,28 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>773.6619339229999</v>
+        <v>9716.638922141194</v>
       </c>
       <c r="C10">
-        <v>207.2800359919407</v>
+        <v>10020.16252858903</v>
       </c>
       <c r="D10">
-        <v>0.009082744589553363</v>
+        <v>0.004135422742804763</v>
       </c>
       <c r="E10">
-        <v>-0.019077792211626</v>
+        <v>0.005725286512599085</v>
       </c>
       <c r="F10">
-        <v>-0.9790827274760409</v>
+        <v>-1.005124370317132</v>
       </c>
       <c r="G10">
-        <v>199.9978043379313</v>
+        <v>9999.965792555742</v>
       </c>
       <c r="H10">
-        <v>770.5750012864879</v>
+        <v>9938.48200000038</v>
       </c>
       <c r="I10">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -670,28 +670,28 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>776.5538256417663</v>
+        <v>9864.470230032079</v>
       </c>
       <c r="C11">
-        <v>194.7397538895522</v>
+        <v>9901.860384213389</v>
       </c>
       <c r="D11">
-        <v>0.0005841554301665395</v>
+        <v>-0.001704052756952004</v>
       </c>
       <c r="E11">
-        <v>0.009953094172846249</v>
+        <v>0.02901222808188234</v>
       </c>
       <c r="F11">
-        <v>-1.05147028803674</v>
+        <v>-0.9883157240381183</v>
       </c>
       <c r="G11">
-        <v>199.9987554224141</v>
+        <v>9999.965740694677</v>
       </c>
       <c r="H11">
-        <v>769.1687516081099</v>
+        <v>9924.363250000475</v>
       </c>
       <c r="I11">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -699,28 +699,28 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>762.848524276032</v>
+        <v>10074.77715542503</v>
       </c>
       <c r="C12">
-        <v>241.2519884582261</v>
+        <v>10185.25912796987</v>
       </c>
       <c r="D12">
-        <v>-1.216555600473729e-05</v>
+        <v>-0.002144900574940232</v>
       </c>
       <c r="E12">
-        <v>0.02230159641673889</v>
+        <v>-0.002596552505674884</v>
       </c>
       <c r="F12">
-        <v>-1.021370323083649</v>
+        <v>-0.971814511432009</v>
       </c>
       <c r="G12">
-        <v>199.9998121829506</v>
+        <v>9999.965683071272</v>
       </c>
       <c r="H12">
-        <v>767.6062519654677</v>
+        <v>9908.675750000581</v>
       </c>
       <c r="I12">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -728,28 +728,28 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>774.0189501642199</v>
+        <v>9419.548125058571</v>
       </c>
       <c r="C13">
-        <v>187.1587088270875</v>
+        <v>10331.51181160471</v>
       </c>
       <c r="D13">
-        <v>0.001644234409207582</v>
+        <v>0.00255674732171037</v>
       </c>
       <c r="E13">
-        <v>-0.03405320173475728</v>
+        <v>-6.46745464375086e-05</v>
       </c>
       <c r="F13">
-        <v>-1.021226544418104</v>
+        <v>-0.9969850502817265</v>
       </c>
       <c r="G13">
-        <v>200.0009746195407</v>
+        <v>9999.965619685527</v>
       </c>
       <c r="H13">
-        <v>765.8875023585612</v>
+        <v>9891.419500000697</v>
       </c>
       <c r="I13">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -757,28 +757,28 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>774.2235038834314</v>
+        <v>9629.996601277031</v>
       </c>
       <c r="C14">
-        <v>185.4565116807531</v>
+        <v>9844.888846134922</v>
       </c>
       <c r="D14">
-        <v>0.001819107023478768</v>
+        <v>0.006275759862494889</v>
       </c>
       <c r="E14">
-        <v>0.007226915095232959</v>
+        <v>-0.009684395375865009</v>
       </c>
       <c r="F14">
-        <v>-0.9574252100977202</v>
+        <v>-0.9970896405358478</v>
       </c>
       <c r="G14">
-        <v>200.0022427321844</v>
+        <v>9999.965550537441</v>
       </c>
       <c r="H14">
-        <v>764.0125027873904</v>
+        <v>9872.594500000823</v>
       </c>
       <c r="I14">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -786,28 +786,28 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>739.7830722052975</v>
+        <v>9638.828281087439</v>
       </c>
       <c r="C15">
-        <v>180.8091168290862</v>
+        <v>10002.88743185328</v>
       </c>
       <c r="D15">
-        <v>0.002684115189123819</v>
+        <v>-0.00757167946982671</v>
       </c>
       <c r="E15">
-        <v>0.03483883791705845</v>
+        <v>-0.03451670093171016</v>
       </c>
       <c r="F15">
-        <v>-0.9909196643608239</v>
+        <v>-0.9924647794063531</v>
       </c>
       <c r="G15">
-        <v>200.0036165208818</v>
+        <v>9999.965475627014</v>
       </c>
       <c r="H15">
-        <v>761.9812532519555</v>
+        <v>9852.20075000096</v>
       </c>
       <c r="I15">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,28 +815,28 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>757.1522095759436</v>
+        <v>9588.745573721455</v>
       </c>
       <c r="C16">
-        <v>216.8330366399424</v>
+        <v>9926.514888725547</v>
       </c>
       <c r="D16">
-        <v>0.002684095321984944</v>
+        <v>-0.0008708417776086944</v>
       </c>
       <c r="E16">
-        <v>-0.01146471198472159</v>
+        <v>0.01251762757493293</v>
       </c>
       <c r="F16">
-        <v>-1.000459336494801</v>
+        <v>-1.036032797818952</v>
       </c>
       <c r="G16">
-        <v>200.0050959856329</v>
+        <v>9999.965394954246</v>
       </c>
       <c r="H16">
-        <v>759.7937537522564</v>
+        <v>9830.238250001108</v>
       </c>
       <c r="I16">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -844,28 +844,28 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>742.4618490500409</v>
+        <v>9737.572991436473</v>
       </c>
       <c r="C17">
-        <v>232.8947762375207</v>
+        <v>9895.298025310618</v>
       </c>
       <c r="D17">
-        <v>-0.01110250611594412</v>
+        <v>-0.003611602345750618</v>
       </c>
       <c r="E17">
-        <v>-0.02623045748845911</v>
+        <v>-0.0139834374227245</v>
       </c>
       <c r="F17">
-        <v>-1.018924158369269</v>
+        <v>-0.9758197588007208</v>
       </c>
       <c r="G17">
-        <v>200.0066811264376</v>
+        <v>9999.965308519138</v>
       </c>
       <c r="H17">
-        <v>757.450004288293</v>
+        <v>9806.707000001266</v>
       </c>
       <c r="I17">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -873,28 +873,28 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>746.770349309899</v>
+        <v>9663.217515917931</v>
       </c>
       <c r="C18">
-        <v>229.7974825305691</v>
+        <v>10106.8533989188</v>
       </c>
       <c r="D18">
-        <v>0.008044062976081092</v>
+        <v>-0.006376035963592454</v>
       </c>
       <c r="E18">
-        <v>0.03655350406121968</v>
+        <v>-0.0197844367442461</v>
       </c>
       <c r="F18">
-        <v>-1.006304071978332</v>
+        <v>-1.009909460100312</v>
       </c>
       <c r="G18">
-        <v>200.0083719432959</v>
+        <v>9999.965216321691</v>
       </c>
       <c r="H18">
-        <v>754.9500048600654</v>
+        <v>9781.607000001435</v>
       </c>
       <c r="I18">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -902,28 +902,28 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>742.7710421827862</v>
+        <v>9451.787069549569</v>
       </c>
       <c r="C19">
-        <v>216.8942460348668</v>
+        <v>10187.4820703112</v>
       </c>
       <c r="D19">
-        <v>-0.001105952362780768</v>
+        <v>0.003375826762355516</v>
       </c>
       <c r="E19">
-        <v>0.01594764321243828</v>
+        <v>0.005730304239626608</v>
       </c>
       <c r="F19">
-        <v>-1.032242028597232</v>
+        <v>-0.9898944971083498</v>
       </c>
       <c r="G19">
-        <v>200.0101684362079</v>
+        <v>9999.965118361903</v>
       </c>
       <c r="H19">
-        <v>752.2937554675735</v>
+        <v>9754.938250001615</v>
       </c>
       <c r="I19">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -931,28 +931,28 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>773.0997993328699</v>
+        <v>9559.931036321128</v>
       </c>
       <c r="C20">
-        <v>178.2401050411316</v>
+        <v>9943.332603935891</v>
       </c>
       <c r="D20">
-        <v>0.0118393766501554</v>
+        <v>-0.001888204772305147</v>
       </c>
       <c r="E20">
-        <v>0.007025513492671193</v>
+        <v>-0.008221864057885081</v>
       </c>
       <c r="F20">
-        <v>-0.9942608863181016</v>
+        <v>-0.9756424688139094</v>
       </c>
       <c r="G20">
-        <v>200.0120706051735</v>
+        <v>9999.965014639773</v>
       </c>
       <c r="H20">
-        <v>749.4812561108175</v>
+        <v>9726.700750001804</v>
       </c>
       <c r="I20">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>756.8109788050233</v>
+        <v>9644.958733126414</v>
       </c>
       <c r="C21">
-        <v>228.2450081321921</v>
+        <v>9817.665823608973</v>
       </c>
       <c r="D21">
-        <v>0.0007808300965549269</v>
+        <v>-0.00301297383304981</v>
       </c>
       <c r="E21">
-        <v>-0.01483510381907979</v>
+        <v>0.008736938464754544</v>
       </c>
       <c r="F21">
-        <v>-0.9901871525726151</v>
+        <v>-1.007715092930919</v>
       </c>
       <c r="G21">
-        <v>200.0140784501928</v>
+        <v>9999.964905155302</v>
       </c>
       <c r="H21">
-        <v>746.5125067897973</v>
+        <v>9696.894500002005</v>
       </c>
       <c r="I21">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -989,28 +989,28 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>723.9424674527022</v>
+        <v>9851.367214743317</v>
       </c>
       <c r="C22">
-        <v>180.6751168386036</v>
+        <v>10030.43986907074</v>
       </c>
       <c r="D22">
-        <v>-0.005636697624437953</v>
+        <v>0.004229787545484569</v>
       </c>
       <c r="E22">
-        <v>-0.03958902234317577</v>
+        <v>0.03007238621289548</v>
       </c>
       <c r="F22">
-        <v>-0.9943284152477911</v>
+        <v>-1.001663785788202</v>
       </c>
       <c r="G22">
-        <v>200.0161919712657</v>
+        <v>9999.964789908492</v>
       </c>
       <c r="H22">
-        <v>743.3875075045128</v>
+        <v>9665.519500002216</v>
       </c>
       <c r="I22">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1018,28 +1018,28 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>733.9286582722748</v>
+        <v>9790.040499572046</v>
       </c>
       <c r="C23">
-        <v>227.6890001958277</v>
+        <v>10080.09703916096</v>
       </c>
       <c r="D23">
-        <v>0.006327627667284466</v>
+        <v>0.008422681660821395</v>
       </c>
       <c r="E23">
-        <v>-0.03347320196259192</v>
+        <v>-0.03127442463596311</v>
       </c>
       <c r="F23">
-        <v>-1.008035234479235</v>
+        <v>-1.00287952717122</v>
       </c>
       <c r="G23">
-        <v>200.0183054923386</v>
+        <v>9999.964674661682</v>
       </c>
       <c r="H23">
-        <v>740.2625082192283</v>
+        <v>9634.144500002427</v>
       </c>
       <c r="I23">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1047,28 +1047,28 @@
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>737.6403772341707</v>
+        <v>9785.562588932195</v>
       </c>
       <c r="C24">
-        <v>187.3036921719374</v>
+        <v>10235.23882368917</v>
       </c>
       <c r="D24">
-        <v>0.004191848914083873</v>
+        <v>0.002884797171486899</v>
       </c>
       <c r="E24">
-        <v>-0.0001760143427955251</v>
+        <v>0.006849379569936197</v>
       </c>
       <c r="F24">
-        <v>-0.980615722792975</v>
+        <v>-1.014380799717866</v>
       </c>
       <c r="G24">
-        <v>200.0204190134116</v>
+        <v>9999.964559414871</v>
       </c>
       <c r="H24">
-        <v>737.1375089339438</v>
+        <v>9602.769500002638</v>
       </c>
       <c r="I24">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1076,28 +1076,28 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>759.7003344227303</v>
+        <v>9142.078527841666</v>
       </c>
       <c r="C25">
-        <v>206.9919506915476</v>
+        <v>9880.831945077167</v>
       </c>
       <c r="D25">
-        <v>0.004040141780495336</v>
+        <v>0.003051550775560465</v>
       </c>
       <c r="E25">
-        <v>-0.01779684730615144</v>
+        <v>0.01297965773273093</v>
       </c>
       <c r="F25">
-        <v>-1.042319265224767</v>
+        <v>-0.9722886910333425</v>
       </c>
       <c r="G25">
-        <v>200.0225325344845</v>
+        <v>9999.964444168061</v>
       </c>
       <c r="H25">
-        <v>734.0125096486593</v>
+        <v>9571.394500002849</v>
       </c>
       <c r="I25">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1105,28 +1105,28 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>722.3148521032355</v>
+        <v>9636.888047329365</v>
       </c>
       <c r="C26">
-        <v>192.3592844095757</v>
+        <v>10078.68493194837</v>
       </c>
       <c r="D26">
-        <v>0.003021703573597887</v>
+        <v>0.001830078778112246</v>
       </c>
       <c r="E26">
-        <v>0.02680371488409782</v>
+        <v>-0.01829360904705197</v>
       </c>
       <c r="F26">
-        <v>-1.012228220959909</v>
+        <v>-1.009472700151131</v>
       </c>
       <c r="G26">
-        <v>200.0246460555574</v>
+        <v>9999.964328921251</v>
       </c>
       <c r="H26">
-        <v>730.8875103633748</v>
+        <v>9540.01950000306</v>
       </c>
       <c r="I26">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1134,28 +1134,28 @@
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>744.7204295197876</v>
+        <v>9266.094721699685</v>
       </c>
       <c r="C27">
-        <v>225.9779366814485</v>
+        <v>10091.81273458247</v>
       </c>
       <c r="D27">
-        <v>-0.0007257553768322216</v>
+        <v>-0.007031640162223961</v>
       </c>
       <c r="E27">
-        <v>0.02504682358154015</v>
+        <v>0.003347874497435303</v>
       </c>
       <c r="F27">
-        <v>-0.9952971442075349</v>
+        <v>-1.04062332282178</v>
       </c>
       <c r="G27">
-        <v>200.0266539005767</v>
+        <v>9999.964219436781</v>
       </c>
       <c r="H27">
-        <v>727.9187610423545</v>
+        <v>9510.21325000326</v>
       </c>
       <c r="I27">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1163,28 +1163,28 @@
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>704.9887746810997</v>
+        <v>9591.345650502408</v>
       </c>
       <c r="C28">
-        <v>206.6187359446613</v>
+        <v>9742.185391042602</v>
       </c>
       <c r="D28">
-        <v>0.003124767279108067</v>
+        <v>-0.0009325225635233747</v>
       </c>
       <c r="E28">
-        <v>-0.02467874985898241</v>
+        <v>0.007113753433883628</v>
       </c>
       <c r="F28">
-        <v>-0.9877961245287427</v>
+        <v>-1.026144189373927</v>
       </c>
       <c r="G28">
-        <v>200.0285560695423</v>
+        <v>9999.964115714651</v>
       </c>
       <c r="H28">
-        <v>725.1062616855985</v>
+        <v>9481.97575000345</v>
       </c>
       <c r="I28">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,28 +1192,28 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>691.9026231829257</v>
+        <v>9727.512404303772</v>
       </c>
       <c r="C29">
-        <v>183.497159478896</v>
+        <v>10074.47574829052</v>
       </c>
       <c r="D29">
-        <v>0.0008154857172039819</v>
+        <v>0.002137811681833779</v>
       </c>
       <c r="E29">
-        <v>0.004106060916804418</v>
+        <v>-0.0436737647692937</v>
       </c>
       <c r="F29">
-        <v>-0.9773766889362562</v>
+        <v>-1.008929694341461</v>
       </c>
       <c r="G29">
-        <v>200.0303525624543</v>
+        <v>9999.964017754863</v>
       </c>
       <c r="H29">
-        <v>722.4500122931066</v>
+        <v>9455.30700000363</v>
       </c>
       <c r="I29">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1221,28 +1221,28 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>727.7180948754335</v>
+        <v>9354.143317666862</v>
       </c>
       <c r="C30">
-        <v>203.8391072051702</v>
+        <v>9977.647347684338</v>
       </c>
       <c r="D30">
-        <v>-0.005303258495169778</v>
+        <v>-0.003430926085643756</v>
       </c>
       <c r="E30">
-        <v>-0.0004926839887454582</v>
+        <v>0.009103909793069636</v>
       </c>
       <c r="F30">
-        <v>-1.019892147892024</v>
+        <v>-1.024323124326826</v>
       </c>
       <c r="G30">
-        <v>200.0320433793126</v>
+        <v>9999.963925557415</v>
       </c>
       <c r="H30">
-        <v>719.950012864879</v>
+        <v>9430.207000003798</v>
       </c>
       <c r="I30">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1250,28 +1250,28 @@
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>732.2856061613699</v>
+        <v>9248.754879178354</v>
       </c>
       <c r="C31">
-        <v>207.0301393541286</v>
+        <v>10183.33463794829</v>
       </c>
       <c r="D31">
-        <v>0.005588076079963243</v>
+        <v>0.0004114363788331242</v>
       </c>
       <c r="E31">
-        <v>0.01868967120630817</v>
+        <v>-0.03097497677473502</v>
       </c>
       <c r="F31">
-        <v>-0.975092584755136</v>
+        <v>-1.005893551659298</v>
       </c>
       <c r="G31">
-        <v>200.0336285201173</v>
+        <v>9999.963839122307</v>
       </c>
       <c r="H31">
-        <v>717.6062634009156</v>
+        <v>9406.675750003957</v>
       </c>
       <c r="I31">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1279,28 +1279,28 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>680.3013519300138</v>
+        <v>9450.51874211561</v>
       </c>
       <c r="C32">
-        <v>179.5308767464873</v>
+        <v>10111.16535231092</v>
       </c>
       <c r="D32">
-        <v>0.0008131783762757278</v>
+        <v>0.00212542571026853</v>
       </c>
       <c r="E32">
-        <v>-0.001839073598241913</v>
+        <v>0.01071666680653999</v>
       </c>
       <c r="F32">
-        <v>-0.9842914484201739</v>
+        <v>-0.9987820315170631</v>
       </c>
       <c r="G32">
-        <v>200.0351079848684</v>
+        <v>9999.963758449539</v>
       </c>
       <c r="H32">
-        <v>715.4187639012165</v>
+        <v>9384.713250004104</v>
       </c>
       <c r="I32">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1308,28 +1308,28 @@
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>714.0007822769824</v>
+        <v>9630.034594004846</v>
       </c>
       <c r="C33">
-        <v>185.4881505465356</v>
+        <v>10208.22596185396</v>
       </c>
       <c r="D33">
-        <v>0.0006534622198443702</v>
+        <v>0.006371228827964858</v>
       </c>
       <c r="E33">
-        <v>-0.002100310723861288</v>
+        <v>-0.00123868271288749</v>
       </c>
       <c r="F33">
-        <v>-1.022129118222504</v>
+        <v>-0.9759465947387683</v>
       </c>
       <c r="G33">
-        <v>200.0364817735658</v>
+        <v>9999.963683539112</v>
       </c>
       <c r="H33">
-        <v>713.3875143657816</v>
+        <v>9364.319500004241</v>
       </c>
       <c r="I33">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1337,28 +1337,28 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>715.8802662321222</v>
+        <v>9408.582678887813</v>
       </c>
       <c r="C34">
-        <v>220.1643966736082</v>
+        <v>10181.94538683839</v>
       </c>
       <c r="D34">
-        <v>0.001649820843727758</v>
+        <v>-0.005366693184307742</v>
       </c>
       <c r="E34">
-        <v>0.02620126507146496</v>
+        <v>0.01169001754615358</v>
       </c>
       <c r="F34">
-        <v>-0.9831905319068365</v>
+        <v>-0.9872943173337091</v>
       </c>
       <c r="G34">
-        <v>200.0377498862095</v>
+        <v>9999.963614391027</v>
       </c>
       <c r="H34">
-        <v>711.5125147946109</v>
+        <v>9345.494500004368</v>
       </c>
       <c r="I34">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1366,28 +1366,28 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>711.1611577586651</v>
+        <v>9466.922248608735</v>
       </c>
       <c r="C35">
-        <v>203.6583719482211</v>
+        <v>10208.69506485658</v>
       </c>
       <c r="D35">
-        <v>0.001822349443252454</v>
+        <v>0.00100968298637509</v>
       </c>
       <c r="E35">
-        <v>-0.008771048772737903</v>
+        <v>0.04730761063726727</v>
       </c>
       <c r="F35">
-        <v>-1.000845731836146</v>
+        <v>-1.008021759335685</v>
       </c>
       <c r="G35">
-        <v>200.0389123227996</v>
+        <v>9999.963551005281</v>
       </c>
       <c r="H35">
-        <v>709.7937651877044</v>
+        <v>9328.238250004484</v>
       </c>
       <c r="I35">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1395,28 +1395,28 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>742.3199401018561</v>
+        <v>9613.171821544514</v>
       </c>
       <c r="C36">
-        <v>196.5552919160115</v>
+        <v>9860.281137794731</v>
       </c>
       <c r="D36">
-        <v>-7.687398340380354e-06</v>
+        <v>-0.003507174461438543</v>
       </c>
       <c r="E36">
-        <v>-0.01628544577236522</v>
+        <v>-0.0048549344536781</v>
       </c>
       <c r="F36">
-        <v>-1.019714080607719</v>
+        <v>-0.9880825576169204</v>
       </c>
       <c r="G36">
-        <v>200.0399690833361</v>
+        <v>9999.963493381876</v>
       </c>
       <c r="H36">
-        <v>708.2312655450621</v>
+        <v>9312.55075000459</v>
       </c>
       <c r="I36">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1424,28 +1424,28 @@
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>683.1833469015361</v>
+        <v>8990.524674196329</v>
       </c>
       <c r="C37">
-        <v>184.8379609531255</v>
+        <v>10028.86259135241</v>
       </c>
       <c r="D37">
-        <v>0.005718646840877652</v>
+        <v>-0.003231073474814079</v>
       </c>
       <c r="E37">
-        <v>-0.008937637203572624</v>
+        <v>0.02164353462531654</v>
       </c>
       <c r="F37">
-        <v>-1.011384813855971</v>
+        <v>-0.9779574376698624</v>
       </c>
       <c r="G37">
-        <v>200.0409201678189</v>
+        <v>9999.963441520811</v>
       </c>
       <c r="H37">
-        <v>706.8250158666841</v>
+        <v>9298.432000004685</v>
       </c>
       <c r="I37">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1453,28 +1453,28 @@
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>714.5995779013317</v>
+        <v>9195.019501759785</v>
       </c>
       <c r="C38">
-        <v>219.5361481397377</v>
+        <v>9915.975920428938</v>
       </c>
       <c r="D38">
-        <v>-0.005969796699772956</v>
+        <v>0.002075933641669451</v>
       </c>
       <c r="E38">
-        <v>-0.02788038059324478</v>
+        <v>0.005738182396600427</v>
       </c>
       <c r="F38">
-        <v>-0.9984738048239299</v>
+        <v>-1.007780070222429</v>
       </c>
       <c r="G38">
-        <v>200.0417655762481</v>
+        <v>9999.963395422086</v>
       </c>
       <c r="H38">
-        <v>705.5750161525704</v>
+        <v>9285.882000004769</v>
       </c>
       <c r="I38">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1482,28 +1482,28 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>728.6282153248698</v>
+        <v>9047.243917212352</v>
       </c>
       <c r="C39">
-        <v>191.1459292167856</v>
+        <v>9750.047649824957</v>
       </c>
       <c r="D39">
-        <v>0.004827914705003975</v>
+        <v>0.0007193751834595012</v>
       </c>
       <c r="E39">
-        <v>0.01087316389377642</v>
+        <v>-0.006792165514206432</v>
       </c>
       <c r="F39">
-        <v>-1.000838135972708</v>
+        <v>-1.027867204101091</v>
       </c>
       <c r="G39">
-        <v>200.0425053086236</v>
+        <v>9999.963355085703</v>
       </c>
       <c r="H39">
-        <v>704.4812664027207</v>
+        <v>9274.900750004843</v>
       </c>
       <c r="I39">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1511,28 +1511,28 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>670.3674825006788</v>
+        <v>9091.113010301315</v>
       </c>
       <c r="C40">
-        <v>199.3822499733156</v>
+        <v>9772.51518139578</v>
       </c>
       <c r="D40">
-        <v>0.003569402988388471</v>
+        <v>0.0004566215487943727</v>
       </c>
       <c r="E40">
-        <v>-0.008807738981522952</v>
+        <v>0.006817199350510152</v>
       </c>
       <c r="F40">
-        <v>-0.9989513933979207</v>
+        <v>-1.029562576679942</v>
       </c>
       <c r="G40">
-        <v>200.0431393649455</v>
+        <v>9999.963320511661</v>
       </c>
       <c r="H40">
-        <v>703.5437666171354</v>
+        <v>9265.488250004906</v>
       </c>
       <c r="I40">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1540,28 +1540,28 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>680.4871875181968</v>
+        <v>9439.73275423298</v>
       </c>
       <c r="C41">
-        <v>214.1905613561818</v>
+        <v>10025.85930322733</v>
       </c>
       <c r="D41">
-        <v>0.006803244797680489</v>
+        <v>0.00028373435634283</v>
       </c>
       <c r="E41">
-        <v>-0.02581872249694521</v>
+        <v>-0.02311681139378368</v>
       </c>
       <c r="F41">
-        <v>-0.9838598450742866</v>
+        <v>-0.9718954140360745</v>
       </c>
       <c r="G41">
-        <v>200.0436677452137</v>
+        <v>9999.963291699958</v>
       </c>
       <c r="H41">
-        <v>702.7625167958142</v>
+        <v>9257.644500004959</v>
       </c>
       <c r="I41">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1569,28 +1569,28 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>697.2192792020854</v>
+        <v>8938.637224107515</v>
       </c>
       <c r="C42">
-        <v>205.0678079965835</v>
+        <v>10043.9263669627</v>
       </c>
       <c r="D42">
-        <v>-0.002510671356705529</v>
+        <v>0.005864404713989837</v>
       </c>
       <c r="E42">
-        <v>-0.02588160607041915</v>
+        <v>-0.008706766451618626</v>
       </c>
       <c r="F42">
-        <v>-0.9996887231855358</v>
+        <v>-0.9883097971916189</v>
       </c>
       <c r="G42">
-        <v>200.0440904494283</v>
+        <v>9999.963268650596</v>
       </c>
       <c r="H42">
-        <v>702.1375169387574</v>
+        <v>9251.369500005001</v>
       </c>
       <c r="I42">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1598,28 +1598,28 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>693.1258213427793</v>
+        <v>9327.766181733647</v>
       </c>
       <c r="C43">
-        <v>231.257260573075</v>
+        <v>10303.77289216976</v>
       </c>
       <c r="D43">
-        <v>-0.005050058267157701</v>
+        <v>0.0004861979967761006</v>
       </c>
       <c r="E43">
-        <v>0.02071387829713571</v>
+        <v>-0.007247278862063289</v>
       </c>
       <c r="F43">
-        <v>-0.9914120823937339</v>
+        <v>-0.992093975121298</v>
       </c>
       <c r="G43">
-        <v>200.0444074775892</v>
+        <v>9999.963251363573</v>
       </c>
       <c r="H43">
-        <v>701.6687670459647</v>
+        <v>9246.663250005033</v>
       </c>
       <c r="I43">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -1627,28 +1627,28 @@
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>708.9515699781676</v>
+        <v>9271.404554739844</v>
       </c>
       <c r="C44">
-        <v>191.5892703112093</v>
+        <v>9529.083195804</v>
       </c>
       <c r="D44">
-        <v>0.003057281524692033</v>
+        <v>0.006638295972966182</v>
       </c>
       <c r="E44">
-        <v>-0.006113825808301432</v>
+        <v>-0.02000492179658772</v>
       </c>
       <c r="F44">
-        <v>-0.9817431970622637</v>
+        <v>-0.9843526854497893</v>
       </c>
       <c r="G44">
-        <v>200.0446188296965</v>
+        <v>9999.963239838893</v>
       </c>
       <c r="H44">
-        <v>701.3562671174362</v>
+        <v>9243.525750005054</v>
       </c>
       <c r="I44">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -1656,28 +1656,28 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>684.7339777091566</v>
+        <v>9279.797189462673</v>
       </c>
       <c r="C45">
-        <v>189.5953877360132</v>
+        <v>10029.98591647201</v>
       </c>
       <c r="D45">
-        <v>-0.003994973070547159</v>
+        <v>-0.001167269273096074</v>
       </c>
       <c r="E45">
-        <v>-0.02765607249012172</v>
+        <v>-0.01943664269079186</v>
       </c>
       <c r="F45">
-        <v>-1.000926269896934</v>
+        <v>-0.9988237400668468</v>
       </c>
       <c r="G45">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H45">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I45">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -1685,28 +1685,28 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>711.3703245467552</v>
+        <v>9300.48110781847</v>
       </c>
       <c r="C46">
-        <v>200.840645989782</v>
+        <v>10198.32328710777</v>
       </c>
       <c r="D46">
-        <v>-0.002824531260013158</v>
+        <v>0.006848477855016023</v>
       </c>
       <c r="E46">
-        <v>-0.01649233528199078</v>
+        <v>-0.001834758792265078</v>
       </c>
       <c r="F46">
-        <v>-1.002570125513355</v>
+        <v>-1.005171062402368</v>
       </c>
       <c r="G46">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H46">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I46">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1714,28 +1714,28 @@
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>733.2934896601427</v>
+        <v>9297.922257831453</v>
       </c>
       <c r="C47">
-        <v>199.2491555261918</v>
+        <v>10136.77088988189</v>
       </c>
       <c r="D47">
-        <v>-0.003734928343538285</v>
+        <v>-0.004339470107442728</v>
       </c>
       <c r="E47">
-        <v>0.007143187651615524</v>
+        <v>-0.01693788233374709</v>
       </c>
       <c r="F47">
-        <v>-0.9743703370732035</v>
+        <v>-0.9764441901595846</v>
       </c>
       <c r="G47">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H47">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I47">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -1743,28 +1743,28 @@
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>663.6050066163815</v>
+        <v>9399.220635027319</v>
       </c>
       <c r="C48">
-        <v>199.783787391092</v>
+        <v>9938.299410814125</v>
       </c>
       <c r="D48">
-        <v>-0.003799057033996346</v>
+        <v>-0.001053516779470901</v>
       </c>
       <c r="E48">
-        <v>0.002651283159949828</v>
+        <v>-0.005230712361004588</v>
       </c>
       <c r="F48">
-        <v>-0.985893067838199</v>
+        <v>-1.023670886061567</v>
       </c>
       <c r="G48">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H48">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I48">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1772,28 +1772,28 @@
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>702.7248387489616</v>
+        <v>8776.001099568906</v>
       </c>
       <c r="C49">
-        <v>199.8296658993121</v>
+        <v>10234.19401399643</v>
       </c>
       <c r="D49">
-        <v>0.007666041154164042</v>
+        <v>0.000131857609811928</v>
       </c>
       <c r="E49">
-        <v>-0.0002877967506037035</v>
+        <v>-0.0280405978164581</v>
       </c>
       <c r="F49">
-        <v>-0.9752528067322279</v>
+        <v>-1.009999004267502</v>
       </c>
       <c r="G49">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H49">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I49">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -1801,28 +1801,28 @@
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>687.7305511721687</v>
+        <v>9454.127772496513</v>
       </c>
       <c r="C50">
-        <v>215.4873170996891</v>
+        <v>9807.752711452507</v>
       </c>
       <c r="D50">
-        <v>0.005793505004875817</v>
+        <v>9.920705128751258e-05</v>
       </c>
       <c r="E50">
-        <v>-0.03281822648097307</v>
+        <v>0.01567220420314505</v>
       </c>
       <c r="F50">
-        <v>-0.9943280687728684</v>
+        <v>-1.007163248507132</v>
       </c>
       <c r="G50">
-        <v>200.0447245057502</v>
+        <v>9999.963234076553</v>
       </c>
       <c r="H50">
-        <v>701.200017153172</v>
+        <v>9241.957000005064</v>
       </c>
       <c r="I50">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1830,28 +1830,28 @@
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>714.0313853026889</v>
+        <v>9292.372744845017</v>
       </c>
       <c r="C51">
-        <v>142.9889759433571</v>
+        <v>10006.90959658539</v>
       </c>
       <c r="D51">
-        <v>0.00139853648598392</v>
+        <v>0.0006139685986654619</v>
       </c>
       <c r="E51">
-        <v>0.01256667180292036</v>
+        <v>-0.03938553803751883</v>
       </c>
       <c r="F51">
-        <v>-0.9952743523021239</v>
+        <v>-1.011412686971451</v>
       </c>
       <c r="G51">
-        <v>200.0452528860184</v>
+        <v>9999.96320526485</v>
       </c>
       <c r="H51">
-        <v>700.4187673318509</v>
+        <v>9234.113250005117</v>
       </c>
       <c r="I51">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -1859,28 +1859,28 @@
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>699.4062337146092</v>
+        <v>9423.12713889724</v>
       </c>
       <c r="C52">
-        <v>185.0582706868304</v>
+        <v>10446.00897084526</v>
       </c>
       <c r="D52">
-        <v>0.001508016242682631</v>
+        <v>-0.006507273674894465</v>
       </c>
       <c r="E52">
-        <v>-0.02397129639334474</v>
+        <v>-0.005882567668372468</v>
       </c>
       <c r="F52">
-        <v>-1.035285340856751</v>
+        <v>-1.005801683930635</v>
       </c>
       <c r="G52">
-        <v>200.0463096465549</v>
+        <v>9999.963147641445</v>
       </c>
       <c r="H52">
-        <v>698.8562676892086</v>
+        <v>9218.425750005223</v>
       </c>
       <c r="I52">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1888,28 +1888,28 @@
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>711.0160027667351</v>
+        <v>9306.724057937479</v>
       </c>
       <c r="C53">
-        <v>210.9163100857167</v>
+        <v>10216.78351611792</v>
       </c>
       <c r="D53">
-        <v>0.001207927323108408</v>
+        <v>-0.002098685194681989</v>
       </c>
       <c r="E53">
-        <v>-0.004033391963350053</v>
+        <v>-0.0233450806727266</v>
       </c>
       <c r="F53">
-        <v>-1.030023926297447</v>
+        <v>-0.9808186102545138</v>
       </c>
       <c r="G53">
-        <v>200.0478947873596</v>
+        <v>9999.963061206337</v>
       </c>
       <c r="H53">
-        <v>696.5125182252452</v>
+        <v>9194.894500005381</v>
       </c>
       <c r="I53">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -1917,28 +1917,28 @@
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>690.6148444955874</v>
+        <v>9084.332410013281</v>
       </c>
       <c r="C54">
-        <v>210.707970838469</v>
+        <v>9909.103353602846</v>
       </c>
       <c r="D54">
-        <v>-0.006579174753980855</v>
+        <v>0.008766056237055496</v>
       </c>
       <c r="E54">
-        <v>0.02565130828854287</v>
+        <v>0.04058056864573074</v>
       </c>
       <c r="F54">
-        <v>-1.013966442565773</v>
+        <v>-1.042705730492692</v>
       </c>
       <c r="G54">
-        <v>200.0500083084325</v>
+        <v>9999.962945959527</v>
       </c>
       <c r="H54">
-        <v>693.3875189399607</v>
+        <v>9163.519500005592</v>
       </c>
       <c r="I54">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1946,28 +1946,28 @@
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>693.0604176239038</v>
+        <v>9082.024212342463</v>
       </c>
       <c r="C55">
-        <v>177.7799501207047</v>
+        <v>9955.720566447646</v>
       </c>
       <c r="D55">
-        <v>0.004127101798005715</v>
+        <v>0.00581173035843352</v>
       </c>
       <c r="E55">
-        <v>-0.01059360315982967</v>
+        <v>0.02468424157693964</v>
       </c>
       <c r="F55">
-        <v>-0.975069449337561</v>
+        <v>-0.9708752845551779</v>
       </c>
       <c r="G55">
-        <v>200.0526502097736</v>
+        <v>9999.962801901014</v>
       </c>
       <c r="H55">
-        <v>689.4812698333551</v>
+        <v>9124.300750005856</v>
       </c>
       <c r="I55">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -1975,28 +1975,28 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>690.000315027395</v>
+        <v>9363.790437128348</v>
       </c>
       <c r="C56">
-        <v>231.3410064538897</v>
+        <v>10087.25799435934</v>
       </c>
       <c r="D56">
-        <v>0.002929949030186557</v>
+        <v>-0.004505502227267716</v>
       </c>
       <c r="E56">
-        <v>0.0133652828557581</v>
+        <v>0.0007382488917137889</v>
       </c>
       <c r="F56">
-        <v>-0.9908161969384511</v>
+        <v>-1.005495226671584</v>
       </c>
       <c r="G56">
-        <v>200.055820491383</v>
+        <v>9999.962629030799</v>
       </c>
       <c r="H56">
-        <v>684.7937709054283</v>
+        <v>9077.238250006174</v>
       </c>
       <c r="I56">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2004,28 +2004,28 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>689.6702071948695</v>
+        <v>9341.906939267163</v>
       </c>
       <c r="C57">
-        <v>241.3034569165514</v>
+        <v>9961.003630017845</v>
       </c>
       <c r="D57">
-        <v>-0.001402756230637578</v>
+        <v>0.001044325470699406</v>
       </c>
       <c r="E57">
-        <v>0.03047114934042104</v>
+        <v>-0.02276296517365432</v>
       </c>
       <c r="F57">
-        <v>-1.018714926233989</v>
+        <v>-0.989192373745747</v>
       </c>
       <c r="G57">
-        <v>200.0595191532607</v>
+        <v>9999.962427348881</v>
       </c>
       <c r="H57">
-        <v>679.3250221561805</v>
+        <v>9022.332000006545</v>
       </c>
       <c r="I57">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -2033,28 +2033,28 @@
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>676.8201946785236</v>
+        <v>8928.293949191004</v>
       </c>
       <c r="C58">
-        <v>180.98246452849</v>
+        <v>10064.63481792515</v>
       </c>
       <c r="D58">
-        <v>-0.0005848441097245552</v>
+        <v>0.001871002602134401</v>
       </c>
       <c r="E58">
-        <v>0.0006208578535998175</v>
+        <v>0.01162510331778913</v>
       </c>
       <c r="F58">
-        <v>-1.012858376675187</v>
+        <v>-0.9855852835236316</v>
       </c>
       <c r="G58">
-        <v>200.0637461954065</v>
+        <v>9999.96219685526</v>
       </c>
       <c r="H58">
-        <v>673.0750235856115</v>
+        <v>8959.582000006969</v>
       </c>
       <c r="I58">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -2062,28 +2062,28 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>669.1851279403739</v>
+        <v>8594.484753100371</v>
       </c>
       <c r="C59">
-        <v>216.9584025080808</v>
+        <v>10300.72640168294</v>
       </c>
       <c r="D59">
-        <v>0.002868209530666226</v>
+        <v>-0.002195594323132635</v>
       </c>
       <c r="E59">
-        <v>-0.02506701961763248</v>
+        <v>0.004370436638204502</v>
       </c>
       <c r="F59">
-        <v>-0.9864455892863927</v>
+        <v>-0.9986989727253114</v>
       </c>
       <c r="G59">
-        <v>200.0685016178206</v>
+        <v>9999.961937549937</v>
       </c>
       <c r="H59">
-        <v>666.0437751937213</v>
+        <v>8888.988250007445</v>
       </c>
       <c r="I59">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -2091,28 +2091,28 @@
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>686.0205153597783</v>
+        <v>8812.676204897911</v>
       </c>
       <c r="C60">
-        <v>195.5748339314177</v>
+        <v>9744.339447261367</v>
       </c>
       <c r="D60">
-        <v>-3.897807596218403e-05</v>
+        <v>0.0006486972326391282</v>
       </c>
       <c r="E60">
-        <v>-0.01419033624345971</v>
+        <v>-0.0219387640095831</v>
       </c>
       <c r="F60">
-        <v>-0.9941907655346176</v>
+        <v>-1.003667256789945</v>
       </c>
       <c r="G60">
-        <v>200.0737854205029</v>
+        <v>9999.961649432911</v>
       </c>
       <c r="H60">
-        <v>658.2312769805101</v>
+        <v>8810.550750007975</v>
       </c>
       <c r="I60">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -2120,28 +2120,28 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>642.4942650084381</v>
+        <v>8461.486706576803</v>
       </c>
       <c r="C61">
-        <v>213.6476802868868</v>
+        <v>10191.9691588905</v>
       </c>
       <c r="D61">
-        <v>-0.001048165045727718</v>
+        <v>-0.00608621047176301</v>
       </c>
       <c r="E61">
-        <v>-0.04721867358031472</v>
+        <v>0.004862547450403168</v>
       </c>
       <c r="F61">
-        <v>-0.9941023982745303</v>
+        <v>-0.9853803906406234</v>
       </c>
       <c r="G61">
-        <v>200.0795976034534</v>
+        <v>9999.961332504183</v>
       </c>
       <c r="H61">
-        <v>649.6375289459777</v>
+        <v>8724.269500008557</v>
       </c>
       <c r="I61">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -2149,28 +2149,28 @@
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>665.8557730561456</v>
+        <v>8356.885062519645</v>
       </c>
       <c r="C62">
-        <v>201.9309329804544</v>
+        <v>9978.165080430921</v>
       </c>
       <c r="D62">
-        <v>-0.0001905265021124834</v>
+        <v>-0.002595855674720533</v>
       </c>
       <c r="E62">
-        <v>-0.007275091698395958</v>
+        <v>0.002040152097768229</v>
       </c>
       <c r="F62">
-        <v>-1.003053097609447</v>
+        <v>-1.020025725880945</v>
       </c>
       <c r="G62">
-        <v>200.0859381666722</v>
+        <v>9999.960986763752</v>
       </c>
       <c r="H62">
-        <v>640.2625310901242</v>
+        <v>8630.144500009192</v>
       </c>
       <c r="I62">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -2178,28 +2178,28 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>624.0508997040043</v>
+        <v>8693.025596969279</v>
       </c>
       <c r="C63">
-        <v>240.0469111153607</v>
+        <v>10112.42525210947</v>
       </c>
       <c r="D63">
-        <v>-0.004097667948420428</v>
+        <v>0.001666272279456364</v>
       </c>
       <c r="E63">
-        <v>-0.01213624529021335</v>
+        <v>0.001777260338179109</v>
       </c>
       <c r="F63">
-        <v>-1.008049374078551</v>
+        <v>-1.008423789156157</v>
       </c>
       <c r="G63">
-        <v>200.0928071101592</v>
+        <v>9999.960612211618</v>
       </c>
       <c r="H63">
-        <v>630.1062834129496</v>
+        <v>8528.175750009879</v>
       </c>
       <c r="I63">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -2207,28 +2207,28 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>629.4366738641675</v>
+        <v>8431.431148639118</v>
       </c>
       <c r="C64">
-        <v>215.2706261923485</v>
+        <v>9720.370800791696</v>
       </c>
       <c r="D64">
-        <v>0.003502897042479598</v>
+        <v>-0.007187624655291634</v>
       </c>
       <c r="E64">
-        <v>0.002755006731617932</v>
+        <v>-0.01609777199023866</v>
       </c>
       <c r="F64">
-        <v>-1.006311322847157</v>
+        <v>-0.9900885091467172</v>
       </c>
       <c r="G64">
-        <v>200.1002044339145</v>
+        <v>9999.960208847782</v>
       </c>
       <c r="H64">
-        <v>619.1687859144538</v>
+        <v>8418.36325001062</v>
       </c>
       <c r="I64">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -2236,28 +2236,28 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>602.3105406178341</v>
+        <v>8152.710810397813</v>
       </c>
       <c r="C65">
-        <v>199.2512005278318</v>
+        <v>10117.93780324406</v>
       </c>
       <c r="D65">
-        <v>0.004369943930135398</v>
+        <v>-0.004859276094761709</v>
       </c>
       <c r="E65">
-        <v>-0.005436401307246414</v>
+        <v>0.006543954349210822</v>
       </c>
       <c r="F65">
-        <v>-0.9702561016429712</v>
+        <v>-1.017750348943135</v>
       </c>
       <c r="G65">
-        <v>200.1081301379379</v>
+        <v>9999.959776672244</v>
       </c>
       <c r="H65">
-        <v>607.4500385946369</v>
+        <v>8300.707000011413</v>
       </c>
       <c r="I65">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -2265,28 +2265,28 @@
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>574.2889646085313</v>
+        <v>8078.813998315615</v>
       </c>
       <c r="C66">
-        <v>196.4349828406943</v>
+        <v>10194.63195323604</v>
       </c>
       <c r="D66">
-        <v>-0.003665303632463816</v>
+        <v>0.002011911580298503</v>
       </c>
       <c r="E66">
-        <v>-0.03579074430748717</v>
+        <v>-0.01460325274209882</v>
       </c>
       <c r="F66">
-        <v>-1.006680145452959</v>
+        <v>-0.9915311651037143</v>
       </c>
       <c r="G66">
-        <v>200.1165842222296</v>
+        <v>9999.959315685002</v>
       </c>
       <c r="H66">
-        <v>594.9500414534989</v>
+        <v>8175.207000012259</v>
       </c>
       <c r="I66">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2294,28 +2294,28 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>546.7565546167998</v>
+        <v>7583.553308448091</v>
       </c>
       <c r="C67">
-        <v>178.2034685658111</v>
+        <v>10387.29840931464</v>
       </c>
       <c r="D67">
-        <v>0.005700560905009434</v>
+        <v>0.004242555373830737</v>
       </c>
       <c r="E67">
-        <v>-0.02002596793050215</v>
+        <v>0.04553191848996751</v>
       </c>
       <c r="F67">
-        <v>-1.035533435286157</v>
+        <v>-0.9693037594907915</v>
       </c>
       <c r="G67">
-        <v>200.1255666867896</v>
+        <v>9999.958825886059</v>
       </c>
       <c r="H67">
-        <v>581.6687944910398</v>
+        <v>8041.863250013159</v>
       </c>
       <c r="I67">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -2323,28 +2323,28 @@
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>623.2611310744809</v>
+        <v>7858.166467915631</v>
       </c>
       <c r="C68">
-        <v>204.1990954355617</v>
+        <v>10303.5041197842</v>
       </c>
       <c r="D68">
-        <v>0.003983282414160434</v>
+        <v>-0.0003797583350216955</v>
       </c>
       <c r="E68">
-        <v>-0.0003507869851239848</v>
+        <v>-0.005400694934756813</v>
       </c>
       <c r="F68">
-        <v>-1.005894934910617</v>
+        <v>-0.9945017740791046</v>
       </c>
       <c r="G68">
-        <v>200.1350775316177</v>
+        <v>9999.958307275412</v>
       </c>
       <c r="H68">
-        <v>567.6062977072595</v>
+        <v>7900.675750014111</v>
       </c>
       <c r="I68">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -2352,28 +2352,28 @@
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>534.8320033061307</v>
+        <v>7272.439147083111</v>
       </c>
       <c r="C69">
-        <v>203.2427507863315</v>
+        <v>9909.088736077252</v>
       </c>
       <c r="D69">
-        <v>0.004073032746861832</v>
+        <v>0.003196292497358605</v>
       </c>
       <c r="E69">
-        <v>0.03307612387507633</v>
+        <v>-0.01730730423260398</v>
       </c>
       <c r="F69">
-        <v>-0.9878113739762455</v>
+        <v>-1.025642942100578</v>
       </c>
       <c r="G69">
-        <v>200.1451167567141</v>
+        <v>9999.957759853063</v>
       </c>
       <c r="H69">
-        <v>552.7625511021581</v>
+        <v>7751.644500015116</v>
       </c>
       <c r="I69">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2381,28 +2381,28 @@
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>571.0808147891563</v>
+        <v>7646.914505475379</v>
       </c>
       <c r="C70">
-        <v>217.394193059423</v>
+        <v>10210.26469614914</v>
       </c>
       <c r="D70">
-        <v>-0.005105401106792701</v>
+        <v>-0.0005581961963698115</v>
       </c>
       <c r="E70">
-        <v>-0.01606765981526148</v>
+        <v>0.009080720053255617</v>
       </c>
       <c r="F70">
-        <v>-1.009508519413982</v>
+        <v>-0.9846517971202859</v>
       </c>
       <c r="G70">
-        <v>200.1556843620787</v>
+        <v>9999.957183619012</v>
       </c>
       <c r="H70">
-        <v>537.1375546757356</v>
+        <v>7594.769500016175</v>
       </c>
       <c r="I70">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2410,28 +2410,28 @@
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>526.1539311167958</v>
+        <v>7415.373246929315</v>
       </c>
       <c r="C71">
-        <v>214.9323919675788</v>
+        <v>9921.602313309862</v>
       </c>
       <c r="D71">
-        <v>0.01220388207344682</v>
+        <v>0.001935910343404965</v>
       </c>
       <c r="E71">
-        <v>0.02894756526601474</v>
+        <v>0.006615902453179486</v>
       </c>
       <c r="F71">
-        <v>-0.9951390705138207</v>
+        <v>-0.9571291338526104</v>
       </c>
       <c r="G71">
-        <v>200.1662519674434</v>
+        <v>9999.95660738496</v>
       </c>
       <c r="H71">
-        <v>521.5125582493131</v>
+        <v>7437.894500017233</v>
       </c>
       <c r="I71">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -2439,28 +2439,28 @@
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>492.7820595450042</v>
+        <v>7256.120464602843</v>
       </c>
       <c r="C72">
-        <v>175.6261822415521</v>
+        <v>9858.068067638962</v>
       </c>
       <c r="D72">
-        <v>-0.0080668845966813</v>
+        <v>0.004197058738375454</v>
       </c>
       <c r="E72">
-        <v>0.009212051324479019</v>
+        <v>0.008039628478409073</v>
       </c>
       <c r="F72">
-        <v>-1.024840531521398</v>
+        <v>-0.999431663502467</v>
       </c>
       <c r="G72">
-        <v>200.176819572808</v>
+        <v>9999.956031150909</v>
       </c>
       <c r="H72">
-        <v>505.8875618228906</v>
+        <v>7281.019500018292</v>
       </c>
       <c r="I72">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2468,28 +2468,28 @@
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>515.230283641498</v>
+        <v>7158.502826152714</v>
       </c>
       <c r="C73">
-        <v>207.5636930698277</v>
+        <v>9775.063212813217</v>
       </c>
       <c r="D73">
-        <v>0.0009293145594642284</v>
+        <v>0.003224983712272131</v>
       </c>
       <c r="E73">
-        <v>-0.01093911185726414</v>
+        <v>0.02141252713922388</v>
       </c>
       <c r="F73">
-        <v>-1.008854981795065</v>
+        <v>-0.9788048223106747</v>
       </c>
       <c r="G73">
-        <v>200.1873871781726</v>
+        <v>9999.955454916857</v>
       </c>
       <c r="H73">
-        <v>490.2625653964681</v>
+        <v>7124.144500019351</v>
       </c>
       <c r="I73">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -2497,28 +2497,28 @@
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>470.9074696489681</v>
+        <v>7055.696037366847</v>
       </c>
       <c r="C74">
-        <v>160.8451256702648</v>
+        <v>10098.51497114042</v>
       </c>
       <c r="D74">
-        <v>-0.005527124284956414</v>
+        <v>-0.0005471046624394756</v>
       </c>
       <c r="E74">
-        <v>0.008875505184009513</v>
+        <v>-0.03075724267560756</v>
       </c>
       <c r="F74">
-        <v>-0.9723939723681848</v>
+        <v>-1.01047586766711</v>
       </c>
       <c r="G74">
-        <v>200.1979547835373</v>
+        <v>9999.954878682805</v>
       </c>
       <c r="H74">
-        <v>474.6375689700455</v>
+        <v>6967.269500020409</v>
       </c>
       <c r="I74">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2526,28 +2526,28 @@
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>448.0098548561525</v>
+        <v>6968.250381055432</v>
       </c>
       <c r="C75">
-        <v>224.1624054234246</v>
+        <v>9794.903016520111</v>
       </c>
       <c r="D75">
-        <v>-0.006942554638737872</v>
+        <v>-0.001611644222616207</v>
       </c>
       <c r="E75">
-        <v>0.01741391914808256</v>
+        <v>0.004412039380171429</v>
       </c>
       <c r="F75">
-        <v>-1.005610426746346</v>
+        <v>-1.016776718283116</v>
       </c>
       <c r="G75">
-        <v>200.2079940086336</v>
+        <v>9999.954331260456</v>
       </c>
       <c r="H75">
-        <v>459.7938223649442</v>
+        <v>6818.238250021414</v>
       </c>
       <c r="I75">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -2555,28 +2555,28 @@
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>405.1500054951791</v>
+        <v>6578.845838046968</v>
       </c>
       <c r="C76">
-        <v>181.4918430661143</v>
+        <v>9860.555134846723</v>
       </c>
       <c r="D76">
-        <v>-0.009244882716304524</v>
+        <v>-0.00267027156290863</v>
       </c>
       <c r="E76">
-        <v>0.04270053139525183</v>
+        <v>-0.02069763695296213</v>
       </c>
       <c r="F76">
-        <v>-1.002958259430769</v>
+        <v>-0.9671711797513387</v>
       </c>
       <c r="G76">
-        <v>200.2175048534618</v>
+        <v>9999.95381264981</v>
       </c>
       <c r="H76">
-        <v>445.7313255811639</v>
+        <v>6677.050750022367</v>
       </c>
       <c r="I76">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2584,28 +2584,28 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>437.8110153135274</v>
+        <v>6779.507532719807</v>
       </c>
       <c r="C77">
-        <v>199.2199189648855</v>
+        <v>10281.3019790999</v>
       </c>
       <c r="D77">
-        <v>-0.0009186567853839334</v>
+        <v>-0.003840099180526059</v>
       </c>
       <c r="E77">
-        <v>-0.03728756361663769</v>
+        <v>0.02859491660607002</v>
       </c>
       <c r="F77">
-        <v>-1.021358671538876</v>
+        <v>-0.9722373883883541</v>
       </c>
       <c r="G77">
-        <v>200.2264873180217</v>
+        <v>9999.953322850866</v>
       </c>
       <c r="H77">
-        <v>432.4500786187048</v>
+        <v>6543.707000023266</v>
       </c>
       <c r="I77">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -2613,28 +2613,28 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>424.3378136914745</v>
+        <v>6278.072452535207</v>
       </c>
       <c r="C78">
-        <v>219.2006280458187</v>
+        <v>10017.90613982989</v>
       </c>
       <c r="D78">
-        <v>-0.006510380669700586</v>
+        <v>0.0005814935768152587</v>
       </c>
       <c r="E78">
-        <v>0.0393803797198431</v>
+        <v>-0.006478000134800523</v>
       </c>
       <c r="F78">
-        <v>-0.9736060997074495</v>
+        <v>-1.005827687560247</v>
       </c>
       <c r="G78">
-        <v>200.2349414023134</v>
+        <v>9999.952861863625</v>
       </c>
       <c r="H78">
-        <v>419.9500814775668</v>
+        <v>6418.207000024113</v>
       </c>
       <c r="I78">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2642,28 +2642,28 @@
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>396.6924175408139</v>
+        <v>6105.110195948981</v>
       </c>
       <c r="C79">
-        <v>202.9035550324172</v>
+        <v>9970.799187231567</v>
       </c>
       <c r="D79">
-        <v>0.007172537558412683</v>
+        <v>0.005530531967555441</v>
       </c>
       <c r="E79">
-        <v>0.01579294630526696</v>
+        <v>0.0543462760335456</v>
       </c>
       <c r="F79">
-        <v>-0.9978224544635746</v>
+        <v>-1.001114055313584</v>
       </c>
       <c r="G79">
-        <v>200.2428671063369</v>
+        <v>9999.952429688086</v>
       </c>
       <c r="H79">
-        <v>408.2313341577499</v>
+        <v>6300.550750024907</v>
       </c>
       <c r="I79">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -2671,28 +2671,28 @@
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>402.6292814135359</v>
+        <v>6085.69127708472</v>
       </c>
       <c r="C80">
-        <v>204.1839501888568</v>
+        <v>10172.11727349036</v>
       </c>
       <c r="D80">
-        <v>-4.885383592437873e-05</v>
+        <v>-0.0006298527760204042</v>
       </c>
       <c r="E80">
-        <v>-0.02491166161816499</v>
+        <v>-0.01701536270622677</v>
       </c>
       <c r="F80">
-        <v>-0.9615855620710508</v>
+        <v>-0.9771434254337577</v>
       </c>
       <c r="G80">
-        <v>200.2502644300922</v>
+        <v>9999.95202632425</v>
       </c>
       <c r="H80">
-        <v>397.2938366592541</v>
+        <v>6190.738250025648</v>
       </c>
       <c r="I80">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -2700,28 +2700,28 @@
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>403.3197993969064</v>
+        <v>5806.937378058357</v>
       </c>
       <c r="C81">
-        <v>200.9996132071567</v>
+        <v>10046.74314661307</v>
       </c>
       <c r="D81">
-        <v>-0.009771510223536884</v>
+        <v>0.004747968224211796</v>
       </c>
       <c r="E81">
-        <v>0.03064237855170123</v>
+        <v>-0.005140746831156758</v>
       </c>
       <c r="F81">
-        <v>-1.032548791635625</v>
+        <v>-1.034988200540064</v>
       </c>
       <c r="G81">
-        <v>200.2571333735792</v>
+        <v>9999.951651772117</v>
       </c>
       <c r="H81">
-        <v>387.1375889820795</v>
+        <v>6088.769500026336</v>
       </c>
       <c r="I81">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -2729,28 +2729,28 @@
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>360.7062461505552</v>
+        <v>5856.108838316615</v>
       </c>
       <c r="C82">
-        <v>202.981304895003</v>
+        <v>10014.776798226</v>
       </c>
       <c r="D82">
-        <v>-0.01197561539514948</v>
+        <v>-0.001207612515788496</v>
       </c>
       <c r="E82">
-        <v>0.0283785044975767</v>
+        <v>-0.002221615273226628</v>
       </c>
       <c r="F82">
-        <v>-0.9856500014347671</v>
+        <v>-1.017891690172053</v>
       </c>
       <c r="G82">
-        <v>200.2634739367979</v>
+        <v>9999.951306031686</v>
       </c>
       <c r="H82">
-        <v>377.762591126226</v>
+        <v>5994.64450002697</v>
       </c>
       <c r="I82">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -2758,28 +2758,28 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83">
-        <v>404.7300096377433</v>
+        <v>6166.296350079993</v>
       </c>
       <c r="C83">
-        <v>209.8047767346501</v>
+        <v>9616.432871993897</v>
       </c>
       <c r="D83">
-        <v>0.0005499746994856341</v>
+        <v>-0.00237503561846871</v>
       </c>
       <c r="E83">
-        <v>0.01306530892030682</v>
+        <v>-0.02814711528211006</v>
       </c>
       <c r="F83">
-        <v>-0.9973285205801918</v>
+        <v>-0.9866950536248976</v>
       </c>
       <c r="G83">
-        <v>200.2692861197485</v>
+        <v>9999.950989102957</v>
       </c>
       <c r="H83">
-        <v>369.1688430916936</v>
+        <v>5908.363250027553</v>
       </c>
       <c r="I83">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -2787,28 +2787,28 @@
     </row>
     <row r="84" spans="2:10">
       <c r="B84">
-        <v>354.2160623134081</v>
+        <v>5653.401320381444</v>
       </c>
       <c r="C84">
-        <v>195.3791218694362</v>
+        <v>9566.897242626545</v>
       </c>
       <c r="D84">
-        <v>-0.007466960065522372</v>
+        <v>-0.005658378308010207</v>
       </c>
       <c r="E84">
-        <v>0.03448485993031424</v>
+        <v>-0.01046556083762829</v>
       </c>
       <c r="F84">
-        <v>-1.023659415862069</v>
+        <v>-0.9961269963424675</v>
       </c>
       <c r="G84">
-        <v>200.2745699224308</v>
+        <v>9999.950700985932</v>
       </c>
       <c r="H84">
-        <v>361.3563448784823</v>
+        <v>5829.925750028082</v>
       </c>
       <c r="I84">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -2816,28 +2816,28 @@
     </row>
     <row r="85" spans="2:10">
       <c r="B85">
-        <v>375.5724392208497</v>
+        <v>5684.487206890759</v>
       </c>
       <c r="C85">
-        <v>213.3134237764903</v>
+        <v>10062.58269002376</v>
       </c>
       <c r="D85">
-        <v>-0.005831129174313895</v>
+        <v>-0.002025535566832637</v>
       </c>
       <c r="E85">
-        <v>-0.007157551404435063</v>
+        <v>0.0007311180772332648</v>
       </c>
       <c r="F85">
-        <v>-1.019131634174434</v>
+        <v>-1.010691255140328</v>
       </c>
       <c r="G85">
-        <v>200.2793253448449</v>
+        <v>9999.950441680608</v>
       </c>
       <c r="H85">
-        <v>354.3250964865922</v>
+        <v>5759.332000028558</v>
       </c>
       <c r="I85">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -2845,28 +2845,28 @@
     </row>
     <row r="86" spans="2:10">
       <c r="B86">
-        <v>363.889854863896</v>
+        <v>5971.894989201398</v>
       </c>
       <c r="C86">
-        <v>170.6842971504494</v>
+        <v>10048.90715961797</v>
       </c>
       <c r="D86">
-        <v>0.001102655032952995</v>
+        <v>0.01204190637024769</v>
       </c>
       <c r="E86">
-        <v>0.01264685151517361</v>
+        <v>-0.008633921597232978</v>
       </c>
       <c r="F86">
-        <v>-1.007801681631945</v>
+        <v>-1.00748592482392</v>
       </c>
       <c r="G86">
-        <v>200.2835523869907</v>
+        <v>9999.950211186988</v>
       </c>
       <c r="H86">
-        <v>348.0750979160232</v>
+        <v>5696.582000028981</v>
       </c>
       <c r="I86">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -2874,28 +2874,28 @@
     </row>
     <row r="87" spans="2:10">
       <c r="B87">
-        <v>370.9727877092438</v>
+        <v>5456.888691193825</v>
       </c>
       <c r="C87">
-        <v>221.1567951237937</v>
+        <v>10097.93707412145</v>
       </c>
       <c r="D87">
-        <v>-0.005438594858674472</v>
+        <v>-0.002439696576675688</v>
       </c>
       <c r="E87">
-        <v>0.003718477612766837</v>
+        <v>0.005551651370447271</v>
       </c>
       <c r="F87">
-        <v>-1.013716586511484</v>
+        <v>-1.021577669951182</v>
       </c>
       <c r="G87">
-        <v>200.2872510488683</v>
+        <v>9999.95000950507</v>
       </c>
       <c r="H87">
-        <v>342.6063491667753</v>
+        <v>5641.675750029352</v>
       </c>
       <c r="I87">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -2903,28 +2903,28 @@
     </row>
     <row r="88" spans="2:10">
       <c r="B88">
-        <v>326.8380795739481</v>
+        <v>5630.689466011179</v>
       </c>
       <c r="C88">
-        <v>202.18834069175</v>
+        <v>10425.46164306045</v>
       </c>
       <c r="D88">
-        <v>-0.003399820624772492</v>
+        <v>-0.008064455843893129</v>
       </c>
       <c r="E88">
-        <v>0.0327936876318309</v>
+        <v>0.008489021983452427</v>
       </c>
       <c r="F88">
-        <v>-0.9983541763870618</v>
+        <v>-0.9927138161338057</v>
       </c>
       <c r="G88">
-        <v>200.2904213304777</v>
+        <v>9999.949836634854</v>
       </c>
       <c r="H88">
-        <v>337.9188502388486</v>
+        <v>5594.613250029669</v>
       </c>
       <c r="I88">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -2932,28 +2932,28 @@
     </row>
     <row r="89" spans="2:10">
       <c r="B89">
-        <v>352.3917713436853</v>
+        <v>5707.08308068592</v>
       </c>
       <c r="C89">
-        <v>189.7559383058976</v>
+        <v>9967.354396677194</v>
       </c>
       <c r="D89">
-        <v>0.0007529691331313219</v>
+        <v>-0.001616547479063715</v>
       </c>
       <c r="E89">
-        <v>0.04320588948284844</v>
+        <v>-0.003847366728573351</v>
       </c>
       <c r="F89">
-        <v>-0.981385551403992</v>
+        <v>-1.021856726836791</v>
       </c>
       <c r="G89">
-        <v>200.2930632318189</v>
+        <v>9999.949692576341</v>
       </c>
       <c r="H89">
-        <v>334.0126011322429</v>
+        <v>5555.394500029934</v>
       </c>
       <c r="I89">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -2961,28 +2961,28 @@
     </row>
     <row r="90" spans="2:10">
       <c r="B90">
-        <v>311.7863892700979</v>
+        <v>5343.08019625579</v>
       </c>
       <c r="C90">
-        <v>191.7776311133739</v>
+        <v>9987.885091116397</v>
       </c>
       <c r="D90">
-        <v>-0.007882037675478536</v>
+        <v>-0.004326063911302656</v>
       </c>
       <c r="E90">
-        <v>-0.008849815413169888</v>
+        <v>0.003174253211694793</v>
       </c>
       <c r="F90">
-        <v>-1.028252408325961</v>
+        <v>-0.9620561132123875</v>
       </c>
       <c r="G90">
-        <v>200.2951767528918</v>
+        <v>9999.949577329531</v>
       </c>
       <c r="H90">
-        <v>330.8876018469584</v>
+        <v>5524.019500030146</v>
       </c>
       <c r="I90">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -2990,28 +2990,28 @@
     </row>
     <row r="91" spans="2:10">
       <c r="B91">
-        <v>309.2924911680319</v>
+        <v>6048.691741312367</v>
       </c>
       <c r="C91">
-        <v>220.6424497700045</v>
+        <v>9804.628009194117</v>
       </c>
       <c r="D91">
-        <v>0.002634949283964646</v>
+        <v>0.008672853730632254</v>
       </c>
       <c r="E91">
-        <v>0.02727853470915877</v>
+        <v>-0.01597500338157313</v>
       </c>
       <c r="F91">
-        <v>-1.022388563617406</v>
+        <v>-1.047586998612667</v>
       </c>
       <c r="G91">
-        <v>200.2967618936965</v>
+        <v>9999.949490894423</v>
       </c>
       <c r="H91">
-        <v>328.5438523829951</v>
+        <v>5500.488250030305</v>
       </c>
       <c r="I91">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -3019,28 +3019,28 @@
     </row>
     <row r="92" spans="2:10">
       <c r="B92">
-        <v>330.3552176809824</v>
+        <v>5268.62897812113</v>
       </c>
       <c r="C92">
-        <v>207.4405509903742</v>
+        <v>10028.02187672588</v>
       </c>
       <c r="D92">
-        <v>-0.0004986835844081432</v>
+        <v>-0.001308044901952012</v>
       </c>
       <c r="E92">
-        <v>-0.01843846584091711</v>
+        <v>0.002869641293884707</v>
       </c>
       <c r="F92">
-        <v>-1.000697545634409</v>
+        <v>-0.9891896206439843</v>
       </c>
       <c r="G92">
-        <v>200.297818654233</v>
+        <v>9999.949433271018</v>
       </c>
       <c r="H92">
-        <v>326.9813527403528</v>
+        <v>5484.80075003041</v>
       </c>
       <c r="I92">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -3048,28 +3048,28 @@
     </row>
     <row r="93" spans="2:10">
       <c r="B93">
-        <v>325.436834364837</v>
+        <v>5284.535043369887</v>
       </c>
       <c r="C93">
-        <v>211.6956729221477</v>
+        <v>10107.88487936763</v>
       </c>
       <c r="D93">
-        <v>-0.001379339992902396</v>
+        <v>0.01083472678014041</v>
       </c>
       <c r="E93">
-        <v>-0.01149090394350793</v>
+        <v>0.02013123177669238</v>
       </c>
       <c r="F93">
-        <v>-0.9968657235611516</v>
+        <v>-0.9732974044062809</v>
       </c>
       <c r="G93">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H93">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I93">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -3077,28 +3077,28 @@
     </row>
     <row r="94" spans="2:10">
       <c r="B94">
-        <v>303.7712682898799</v>
+        <v>5174.924868694243</v>
       </c>
       <c r="C94">
-        <v>206.5239272763507</v>
+        <v>10330.16358438723</v>
       </c>
       <c r="D94">
-        <v>-0.00346369339618718</v>
+        <v>-0.007799068288611153</v>
       </c>
       <c r="E94">
-        <v>-0.009512679611780131</v>
+        <v>0.00656050023357434</v>
       </c>
       <c r="F94">
-        <v>-0.960120937454951</v>
+        <v>-1.013904559511132</v>
       </c>
       <c r="G94">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H94">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I94">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -3106,28 +3106,28 @@
     </row>
     <row r="95" spans="2:10">
       <c r="B95">
-        <v>320.2388429804116</v>
+        <v>5600.491523023387</v>
       </c>
       <c r="C95">
-        <v>196.6683793269391</v>
+        <v>10221.78348554409</v>
       </c>
       <c r="D95">
-        <v>-0.005317626629833986</v>
+        <v>0.004832719528361285</v>
       </c>
       <c r="E95">
-        <v>0.01827524359454565</v>
+        <v>-0.00549972750549118</v>
       </c>
       <c r="F95">
-        <v>-1.029915902996296</v>
+        <v>-1.029113352448123</v>
       </c>
       <c r="G95">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H95">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I95">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -3135,28 +3135,28 @@
     </row>
     <row r="96" spans="2:10">
       <c r="B96">
-        <v>331.470038944731</v>
+        <v>5244.69987711927</v>
       </c>
       <c r="C96">
-        <v>181.8350540130699</v>
+        <v>10077.58995436099</v>
       </c>
       <c r="D96">
-        <v>-0.01253114037407448</v>
+        <v>0.001394804833894703</v>
       </c>
       <c r="E96">
-        <v>-0.0006530986399469169</v>
+        <v>-0.009113211732732083</v>
       </c>
       <c r="F96">
-        <v>-0.9749264534228614</v>
+        <v>-0.9849357098590248</v>
       </c>
       <c r="G96">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H96">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I96">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -3164,28 +3164,28 @@
     </row>
     <row r="97" spans="2:10">
       <c r="B97">
-        <v>359.362617534607</v>
+        <v>5848.143894327864</v>
       </c>
       <c r="C97">
-        <v>197.0011827584249</v>
+        <v>10022.65014175037</v>
       </c>
       <c r="D97">
-        <v>-0.006058627424000334</v>
+        <v>-0.004752687300117294</v>
       </c>
       <c r="E97">
-        <v>-0.003190510191908324</v>
+        <v>-0.01354632442884508</v>
       </c>
       <c r="F97">
-        <v>-0.9754659760008679</v>
+        <v>-1.023000748571061</v>
       </c>
       <c r="G97">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H97">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I97">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -3193,28 +3193,28 @@
     </row>
     <row r="98" spans="2:10">
       <c r="B98">
-        <v>342.9937356937977</v>
+        <v>5720.612639704469</v>
       </c>
       <c r="C98">
-        <v>199.2833372086881</v>
+        <v>9802.416242538677</v>
       </c>
       <c r="D98">
-        <v>-0.0002684629731819077</v>
+        <v>-0.009691319961217431</v>
       </c>
       <c r="E98">
-        <v>-0.026523820685405</v>
+        <v>-0.02070628967154813</v>
       </c>
       <c r="F98">
-        <v>-1.009755039311196</v>
+        <v>-1.005132405428896</v>
       </c>
       <c r="G98">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H98">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I98">
-        <v>-1.57012</v>
+        <v>4.712385307179586</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -3222,695 +3222,695 @@
     </row>
     <row r="99" spans="2:10">
       <c r="B99">
-        <v>330.9105881228564</v>
+        <v>5369.913438224473</v>
       </c>
       <c r="C99">
-        <v>162.973760846085</v>
+        <v>9806.269347853196</v>
       </c>
       <c r="D99">
-        <v>0.2819072102660933</v>
+        <v>0.4701714479522041</v>
       </c>
       <c r="E99">
-        <v>-0.01113421201569658</v>
+        <v>-0.03287759617418742</v>
       </c>
       <c r="F99">
-        <v>-1.02786729529683</v>
+        <v>-0.9950437477970435</v>
       </c>
       <c r="G99">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H99">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I99">
-        <v>-1.552758888888889</v>
+        <v>-1.541200943396227</v>
       </c>
       <c r="J99">
-        <v>0.2777777777777778</v>
+        <v>0.4735849056603774</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100">
-        <v>335.3966207110957</v>
+        <v>5746.991991063282</v>
       </c>
       <c r="C100">
-        <v>200.6698481882907</v>
+        <v>9946.849083398713</v>
       </c>
       <c r="D100">
-        <v>0.5576511137299183</v>
+        <v>0.9586006520763513</v>
       </c>
       <c r="E100">
-        <v>-0.08247935103831192</v>
+        <v>-0.07992254188682918</v>
       </c>
       <c r="F100">
-        <v>-0.9720395122588247</v>
+        <v>-0.9757360402144448</v>
       </c>
       <c r="G100">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H100">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I100">
-        <v>-1.518036666666666</v>
+        <v>-1.48200283018868</v>
       </c>
       <c r="J100">
-        <v>0.5555555555555556</v>
+        <v>0.9471698113207547</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101">
-        <v>338.9854445567755</v>
+        <v>5371.811211364826</v>
       </c>
       <c r="C101">
-        <v>225.0098404822859</v>
+        <v>10267.70998235769</v>
       </c>
       <c r="D101">
-        <v>0.8250534077724551</v>
+        <v>1.4244829415236</v>
       </c>
       <c r="E101">
-        <v>-0.1221026410262151</v>
+        <v>-0.1448489867180907</v>
       </c>
       <c r="F101">
-        <v>-1.004818484923147</v>
+        <v>-0.9724339507341431</v>
       </c>
       <c r="G101">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H101">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I101">
-        <v>-1.465953333333333</v>
+        <v>-1.393205660377359</v>
       </c>
       <c r="J101">
-        <v>0.8333333333333334</v>
+        <v>1.420754716981132</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102">
-        <v>360.7562987087655</v>
+        <v>5695.632739586697</v>
       </c>
       <c r="C102">
-        <v>192.4513564618432</v>
+        <v>10602.51355989352</v>
       </c>
       <c r="D102">
-        <v>1.114613607632554</v>
+        <v>1.896611166434235</v>
       </c>
       <c r="E102">
-        <v>-0.2003450389944709</v>
+        <v>-0.2812105964544093</v>
       </c>
       <c r="F102">
-        <v>-0.9569431073675863</v>
+        <v>-0.97396063191976</v>
       </c>
       <c r="G102">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H102">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I102">
-        <v>-1.396508888888889</v>
+        <v>-1.274809433962264</v>
       </c>
       <c r="J102">
-        <v>1.111111111111111</v>
+        <v>1.894339622641509</v>
       </c>
     </row>
     <row r="103" spans="2:10">
       <c r="B103">
-        <v>388.5834553334097</v>
+        <v>6109.344042931147</v>
       </c>
       <c r="C103">
-        <v>196.558162412948</v>
+        <v>11142.91094751432</v>
       </c>
       <c r="D103">
-        <v>1.395942733365198</v>
+        <v>2.366260229303586</v>
       </c>
       <c r="E103">
-        <v>-0.2362453486426628</v>
+        <v>-0.4150538425641101</v>
       </c>
       <c r="F103">
-        <v>-0.9296535357257941</v>
+        <v>-0.9197219496972017</v>
       </c>
       <c r="G103">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H103">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I103">
-        <v>-1.309703333333333</v>
+        <v>-1.126814150943396</v>
       </c>
       <c r="J103">
-        <v>1.388888888888889</v>
+        <v>2.367924528301887</v>
       </c>
     </row>
     <row r="104" spans="2:10">
       <c r="B104">
-        <v>323.9378036847515</v>
+        <v>6470.958636875159</v>
       </c>
       <c r="C104">
-        <v>243.3048391761928</v>
+        <v>9320.88565987423</v>
       </c>
       <c r="D104">
-        <v>1.664066309215255</v>
+        <v>2.836300962849286</v>
       </c>
       <c r="E104">
-        <v>-0.3508908753424697</v>
+        <v>-0.5627922520504223</v>
       </c>
       <c r="F104">
-        <v>-0.9432564017992435</v>
+        <v>-0.8319433633897271</v>
       </c>
       <c r="G104">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H104">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I104">
-        <v>-1.205536666666666</v>
+        <v>-0.9492198113207549</v>
       </c>
       <c r="J104">
-        <v>1.666666666666667</v>
+        <v>2.841509433962264</v>
       </c>
     </row>
     <row r="105" spans="2:10">
       <c r="B105">
-        <v>371.7178125975298</v>
+        <v>7931.231563560528</v>
       </c>
       <c r="C105">
-        <v>238.826113658974</v>
+        <v>7274.689266369171</v>
       </c>
       <c r="D105">
-        <v>1.952334184356858</v>
+        <v>3.320367335009152</v>
       </c>
       <c r="E105">
-        <v>-0.4699725431754723</v>
+        <v>-0.7301348907561958</v>
       </c>
       <c r="F105">
-        <v>-0.8531097520916647</v>
+        <v>-0.6691245558353297</v>
       </c>
       <c r="G105">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H105">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I105">
-        <v>-1.084008888888889</v>
+        <v>-0.7420264150943399</v>
       </c>
       <c r="J105">
-        <v>1.944444444444444</v>
+        <v>3.315094339622641</v>
       </c>
     </row>
     <row r="106" spans="2:10">
       <c r="B106">
-        <v>420.8568235178955</v>
+        <v>11045.23421680184</v>
       </c>
       <c r="C106">
-        <v>255.6834289198053</v>
+        <v>6186.846103248041</v>
       </c>
       <c r="D106">
-        <v>2.222479762884384</v>
+        <v>3.78973554688881</v>
       </c>
       <c r="E106">
-        <v>-0.6232683914029881</v>
+        <v>-0.9012571874835013</v>
       </c>
       <c r="F106">
-        <v>-0.8415554309847417</v>
+        <v>-0.4861272328276018</v>
       </c>
       <c r="G106">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H106">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I106">
-        <v>-0.94512</v>
+        <v>-0.5052339622641512</v>
       </c>
       <c r="J106">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="107" spans="2:10">
       <c r="B107">
-        <v>424.0781494653101</v>
+        <v>10042.40020285689</v>
       </c>
       <c r="C107">
-        <v>288.9464667446619</v>
+        <v>5409.766424104966</v>
       </c>
       <c r="D107">
-        <v>2.215406050259591</v>
+        <v>3.79418054192711</v>
       </c>
       <c r="E107">
-        <v>-0.6836290943664386</v>
+        <v>-0.9477837861817821</v>
       </c>
       <c r="F107">
-        <v>-0.7077152924224341</v>
+        <v>-0.2822187983659106</v>
       </c>
       <c r="G107">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H107">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I107">
-        <v>-0.8062311111111111</v>
+        <v>-0.2684415094339625</v>
       </c>
       <c r="J107">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="108" spans="2:10">
       <c r="B108">
-        <v>538.8422467445311</v>
+        <v>9964.155151637115</v>
       </c>
       <c r="C108">
-        <v>318.3147162129425</v>
+        <v>5138.710381571668</v>
       </c>
       <c r="D108">
-        <v>2.209982307353061</v>
+        <v>3.787686498585922</v>
       </c>
       <c r="E108">
-        <v>-0.7821112734643894</v>
+        <v>-1.012691571144042</v>
       </c>
       <c r="F108">
-        <v>-0.6170176780910697</v>
+        <v>-0.02027417515716256</v>
       </c>
       <c r="G108">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H108">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I108">
-        <v>-0.6673422222222223</v>
+        <v>-0.03164905660377382</v>
       </c>
       <c r="J108">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="B109">
-        <v>646.2425765385091</v>
+        <v>10387.93205215633</v>
       </c>
       <c r="C109">
-        <v>391.1206752886711</v>
+        <v>5652.121384502567</v>
       </c>
       <c r="D109">
-        <v>2.212927314777099</v>
+        <v>3.795648483578545</v>
       </c>
       <c r="E109">
-        <v>-0.8544444069742201</v>
+        <v>-1.010266966488775</v>
       </c>
       <c r="F109">
-        <v>-0.5169976254872859</v>
+        <v>0.1749962783368733</v>
       </c>
       <c r="G109">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H109">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I109">
-        <v>-0.5284533333333334</v>
+        <v>0.2051433962264149</v>
       </c>
       <c r="J109">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="B110">
-        <v>845.0488279932515</v>
+        <v>10836.59109638556</v>
       </c>
       <c r="C110">
-        <v>349.3770212826821</v>
+        <v>5941.317327379915</v>
       </c>
       <c r="D110">
-        <v>2.220200478570616</v>
+        <v>3.792582909104427</v>
       </c>
       <c r="E110">
-        <v>-0.9656757942253128</v>
+        <v>-0.943651838580456</v>
       </c>
       <c r="F110">
-        <v>-0.3819139657326606</v>
+        <v>0.4281296282691595</v>
       </c>
       <c r="G110">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H110">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I110">
-        <v>-0.3895644444444445</v>
+        <v>0.4419358490566035</v>
       </c>
       <c r="J110">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="B111">
-        <v>820.7641361888647</v>
+        <v>12828.45889372007</v>
       </c>
       <c r="C111">
-        <v>351.9419752023243</v>
+        <v>7181.693179608539</v>
       </c>
       <c r="D111">
-        <v>2.216198432491797</v>
+        <v>3.793420765622809</v>
       </c>
       <c r="E111">
-        <v>-0.9616779168582004</v>
+        <v>-0.7651150610857079</v>
       </c>
       <c r="F111">
-        <v>-0.2544880563121332</v>
+        <v>0.6309663902047943</v>
       </c>
       <c r="G111">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H111">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I111">
-        <v>-0.2506755555555557</v>
+        <v>0.6787283018867922</v>
       </c>
       <c r="J111">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="B112">
-        <v>802.8309961866273</v>
+        <v>16447.37254142351</v>
       </c>
       <c r="C112">
-        <v>360.9116753081742</v>
+        <v>9106.932824634483</v>
       </c>
       <c r="D112">
-        <v>2.223968717138607</v>
+        <v>3.785027993522975</v>
       </c>
       <c r="E112">
-        <v>-0.9961796665526571</v>
+        <v>-0.6275285986989306</v>
       </c>
       <c r="F112">
-        <v>-0.1020645382954211</v>
+        <v>0.807974805729303</v>
       </c>
       <c r="G112">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H112">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I112">
-        <v>-0.1117866666666668</v>
+        <v>0.9155207547169809</v>
       </c>
       <c r="J112">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="B113">
-        <v>804.1274089888253</v>
+        <v>15932.36858268101</v>
       </c>
       <c r="C113">
-        <v>295.5896945546653</v>
+        <v>10932.43292400142</v>
       </c>
       <c r="D113">
-        <v>2.222853406121219</v>
+        <v>3.794909984205413</v>
       </c>
       <c r="E113">
-        <v>-0.9997802359918875</v>
+        <v>-0.3993137781033048</v>
       </c>
       <c r="F113">
-        <v>0.05652425338934629</v>
+        <v>0.8962961873523023</v>
       </c>
       <c r="G113">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H113">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I113">
-        <v>0.02710222222222214</v>
+        <v>1.15231320754717</v>
       </c>
       <c r="J113">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="114" spans="2:10">
       <c r="B114">
-        <v>821.3692158605091</v>
+        <v>14980.3355033595</v>
       </c>
       <c r="C114">
-        <v>318.8525329902463</v>
+        <v>10229.4560428862</v>
       </c>
       <c r="D114">
-        <v>2.221325615808136</v>
+        <v>3.783981943829611</v>
       </c>
       <c r="E114">
-        <v>-0.9958563393477808</v>
+        <v>-0.1735208429872803</v>
       </c>
       <c r="F114">
-        <v>0.1485805098262959</v>
+        <v>0.9876201192025578</v>
       </c>
       <c r="G114">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H114">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I114">
-        <v>0.165991111111111</v>
+        <v>1.389105660377358</v>
       </c>
       <c r="J114">
-        <v>2.222222222222222</v>
+        <v>3.788679245283019</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="B115">
-        <v>832.6895859387967</v>
+        <v>14804.43475183181</v>
       </c>
       <c r="C115">
-        <v>323.5592653986914</v>
+        <v>9835.27651813316</v>
       </c>
       <c r="D115">
-        <v>1.938486339615584</v>
+        <v>3.31379359161697</v>
       </c>
       <c r="E115">
-        <v>-1.006732943140477</v>
+        <v>0.06405703758147707</v>
       </c>
       <c r="F115">
-        <v>0.2934877242554282</v>
+        <v>1.028423814423665</v>
       </c>
       <c r="G115">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H115">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I115">
-        <v>0.2875188888888888</v>
+        <v>1.596299056603773</v>
       </c>
       <c r="J115">
-        <v>1.944444444444444</v>
+        <v>3.315094339622641</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="B116">
-        <v>853.0326875038413</v>
+        <v>14650.23036938684</v>
       </c>
       <c r="C116">
-        <v>374.0016357034562</v>
+        <v>10003.09767702818</v>
       </c>
       <c r="D116">
-        <v>1.666999288716525</v>
+        <v>2.841820041218198</v>
       </c>
       <c r="E116">
-        <v>-0.9036998250984772</v>
+        <v>0.178022716793425</v>
       </c>
       <c r="F116">
-        <v>0.3806607973490573</v>
+        <v>0.9602361253422297</v>
       </c>
       <c r="G116">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H116">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I116">
-        <v>0.3916855555555555</v>
+        <v>1.773893396226415</v>
       </c>
       <c r="J116">
-        <v>1.666666666666667</v>
+        <v>2.841509433962264</v>
       </c>
     </row>
     <row r="117" spans="2:10">
       <c r="B117">
-        <v>885.1790579881197</v>
+        <v>15524.854857283</v>
       </c>
       <c r="C117">
-        <v>369.2845498442141</v>
+        <v>10588.76207621978</v>
       </c>
       <c r="D117">
-        <v>1.391455668198126</v>
+        <v>2.368704948801552</v>
       </c>
       <c r="E117">
-        <v>-0.8699364355928778</v>
+        <v>0.356960311127777</v>
       </c>
       <c r="F117">
-        <v>0.465962930789699</v>
+        <v>0.9472398189785193</v>
       </c>
       <c r="G117">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H117">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I117">
-        <v>0.4784911111111111</v>
+        <v>1.921888679245283</v>
       </c>
       <c r="J117">
-        <v>1.388888888888889</v>
+        <v>2.367924528301887</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="B118">
-        <v>954.714746243151</v>
+        <v>16357.4298079543</v>
       </c>
       <c r="C118">
-        <v>389.2495599059995</v>
+        <v>11090.06406355653</v>
       </c>
       <c r="D118">
-        <v>1.125497073148736</v>
+        <v>1.894800732589184</v>
       </c>
       <c r="E118">
-        <v>-0.8843828126036736</v>
+        <v>0.4961838534358729</v>
       </c>
       <c r="F118">
-        <v>0.5333076690523171</v>
+        <v>0.9243074302201707</v>
       </c>
       <c r="G118">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H118">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I118">
-        <v>0.5479355555555555</v>
+        <v>2.040284905660377</v>
       </c>
       <c r="J118">
-        <v>1.111111111111111</v>
+        <v>1.894339622641509</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="B119">
-        <v>997.2403737540793</v>
+        <v>16956.18823662318</v>
       </c>
       <c r="C119">
-        <v>357.6098977861341</v>
+        <v>11987.22278992189</v>
       </c>
       <c r="D119">
-        <v>0.8401954327583939</v>
+        <v>1.415319899006923</v>
       </c>
       <c r="E119">
-        <v>-0.8142714203937199</v>
+        <v>0.5136897788580994</v>
       </c>
       <c r="F119">
-        <v>0.5657787970439765</v>
+        <v>0.8625236775585134</v>
       </c>
       <c r="G119">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H119">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I119">
-        <v>0.6000188888888889</v>
+        <v>2.129082075471698</v>
       </c>
       <c r="J119">
-        <v>0.8333333333333334</v>
+        <v>1.420754716981132</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="B120">
-        <v>984.5046234416745</v>
+        <v>16907.91922273787</v>
       </c>
       <c r="C120">
-        <v>412.205394058159</v>
+        <v>12012.63113825731</v>
       </c>
       <c r="D120">
-        <v>0.5493733729184788</v>
+        <v>0.9556113564442809</v>
       </c>
       <c r="E120">
-        <v>-0.8233603781930867</v>
+        <v>0.5312956947005069</v>
       </c>
       <c r="F120">
-        <v>0.6308001372483368</v>
+        <v>0.8129236105559825</v>
       </c>
       <c r="G120">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H120">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I120">
-        <v>0.6347411111111111</v>
+        <v>2.188280188679245</v>
       </c>
       <c r="J120">
-        <v>0.5555555555555556</v>
+        <v>0.9471698113207547</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="B121">
-        <v>992.799713146102</v>
+        <v>16463.11927773201</v>
       </c>
       <c r="C121">
-        <v>398.4356152035704</v>
+        <v>12735.2776400369</v>
       </c>
       <c r="D121">
-        <v>0.2824674017663755</v>
+        <v>0.4693908859003664</v>
       </c>
       <c r="E121">
-        <v>-0.8009237972715015</v>
+        <v>0.5869912415868094</v>
       </c>
       <c r="F121">
-        <v>0.5687747543497951</v>
+        <v>0.7889738940705716</v>
       </c>
       <c r="G121">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H121">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I121">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J121">
-        <v>0.2777777777777778</v>
+        <v>0.4735849056603774</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="B122">
-        <v>995.2486438019396</v>
+        <v>16801.27575084967</v>
       </c>
       <c r="C122">
-        <v>380.7459651135803</v>
+        <v>12548.14992758989</v>
       </c>
       <c r="D122">
-        <v>-0.002626622138500323</v>
+        <v>-0.001606122818317796</v>
       </c>
       <c r="E122">
-        <v>-0.7830219313290299</v>
+        <v>0.6114002586879467</v>
       </c>
       <c r="F122">
-        <v>0.641667694214022</v>
+        <v>0.8382495155943888</v>
       </c>
       <c r="G122">
-        <v>200.2983470345012</v>
+        <v>9999.949404459316</v>
       </c>
       <c r="H122">
-        <v>326.2001029190317</v>
+        <v>5476.957000030463</v>
       </c>
       <c r="I122">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -3918,28 +3918,28 @@
     </row>
     <row r="123" spans="2:10">
       <c r="B123">
-        <v>1031.085280238217</v>
+        <v>16508.19366548571</v>
       </c>
       <c r="C123">
-        <v>401.5257166783059</v>
+        <v>12479.61525638391</v>
       </c>
       <c r="D123">
-        <v>-0.001610254119693724</v>
+        <v>-0.002090298590174664</v>
       </c>
       <c r="E123">
-        <v>-0.7756592315047505</v>
+        <v>0.6138334478404001</v>
       </c>
       <c r="F123">
-        <v>0.6033039332040765</v>
+        <v>0.8083682860274072</v>
       </c>
       <c r="G123">
-        <v>201.5402373533985</v>
+        <v>9990.492013221876</v>
       </c>
       <c r="H123">
-        <v>327.1483195007414</v>
+        <v>5489.473205814646</v>
       </c>
       <c r="I123">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -3947,28 +3947,28 @@
     </row>
     <row r="124" spans="2:10">
       <c r="B124">
-        <v>1018.877901058022</v>
+        <v>16520.2938013088</v>
       </c>
       <c r="C124">
-        <v>416.5535182929387</v>
+        <v>12623.98685092913</v>
       </c>
       <c r="D124">
-        <v>-0.006071984534497862</v>
+        <v>0.00720459843629745</v>
       </c>
       <c r="E124">
-        <v>-0.813639870571658</v>
+        <v>0.5983433959375239</v>
       </c>
       <c r="F124">
-        <v>0.5841938244429428</v>
+        <v>0.799895188843823</v>
       </c>
       <c r="G124">
-        <v>204.024017991193</v>
+        <v>9971.577230746998</v>
       </c>
       <c r="H124">
-        <v>329.0447526641608</v>
+        <v>5514.505617383011</v>
       </c>
       <c r="I124">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -3976,28 +3976,28 @@
     </row>
     <row r="125" spans="2:10">
       <c r="B125">
-        <v>994.6097953944421</v>
+        <v>16176.87472865589</v>
       </c>
       <c r="C125">
-        <v>420.7479950744322</v>
+        <v>12650.47102983654</v>
       </c>
       <c r="D125">
-        <v>0.002140732378371148</v>
+        <v>0.008290945522692559</v>
       </c>
       <c r="E125">
-        <v>-0.8099754568991483</v>
+        <v>0.5863056483484739</v>
       </c>
       <c r="F125">
-        <v>0.6014216837751465</v>
+        <v>0.8150741074404998</v>
       </c>
       <c r="G125">
-        <v>207.7496889478848</v>
+        <v>9943.20505703468</v>
       </c>
       <c r="H125">
-        <v>331.8894024092899</v>
+        <v>5552.054234735559</v>
       </c>
       <c r="I125">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -4005,28 +4005,28 @@
     </row>
     <row r="126" spans="2:10">
       <c r="B126">
-        <v>975.2069056967354</v>
+        <v>16911.54366350213</v>
       </c>
       <c r="C126">
-        <v>399.4902305237501</v>
+        <v>12778.50583113024</v>
       </c>
       <c r="D126">
-        <v>0.0003502418573210076</v>
+        <v>0.004703568493200145</v>
       </c>
       <c r="E126">
-        <v>-0.7833403046367512</v>
+        <v>0.5824762706362799</v>
       </c>
       <c r="F126">
-        <v>0.6063458149914273</v>
+        <v>0.7982573743050592</v>
       </c>
       <c r="G126">
-        <v>212.7172502234739</v>
+        <v>9905.375492084924</v>
       </c>
       <c r="H126">
-        <v>335.6822687361287</v>
+        <v>5602.11905787229</v>
       </c>
       <c r="I126">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -4034,28 +4034,28 @@
     </row>
     <row r="127" spans="2:10">
       <c r="B127">
-        <v>997.421317767475</v>
+        <v>16721.23619656066</v>
       </c>
       <c r="C127">
-        <v>451.932689521049</v>
+        <v>12454.01567181341</v>
       </c>
       <c r="D127">
-        <v>0.004782308605085307</v>
+        <v>0.000945477429278364</v>
       </c>
       <c r="E127">
-        <v>-0.7941718908514248</v>
+        <v>0.5836085653776951</v>
       </c>
       <c r="F127">
-        <v>0.6639776443170857</v>
+        <v>0.8218304002594943</v>
       </c>
       <c r="G127">
-        <v>218.9267018179603</v>
+        <v>9858.088535897728</v>
       </c>
       <c r="H127">
-        <v>340.4233516446773</v>
+        <v>5664.700086793204</v>
       </c>
       <c r="I127">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -4063,28 +4063,28 @@
     </row>
     <row r="128" spans="2:10">
       <c r="B128">
-        <v>980.5835796026898</v>
+        <v>16345.15432565422</v>
       </c>
       <c r="C128">
-        <v>422.8505482715254</v>
+        <v>12677.31757961855</v>
       </c>
       <c r="D128">
-        <v>0.005947359610878935</v>
+        <v>3.150061594541653e-06</v>
       </c>
       <c r="E128">
-        <v>-0.8015165820276793</v>
+        <v>0.5591298393270817</v>
       </c>
       <c r="F128">
-        <v>0.5836275587872105</v>
+        <v>0.8051449132821663</v>
       </c>
       <c r="G128">
-        <v>226.3780437313439</v>
+        <v>9801.344188473095</v>
       </c>
       <c r="H128">
-        <v>346.1126511349355</v>
+        <v>5739.7973214983</v>
       </c>
       <c r="I128">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -4092,28 +4092,28 @@
     </row>
     <row r="129" spans="2:10">
       <c r="B129">
-        <v>922.0976880116295</v>
+        <v>16190.62116515453</v>
       </c>
       <c r="C129">
-        <v>454.699738108126</v>
+        <v>12902.66720516348</v>
       </c>
       <c r="D129">
-        <v>0.00483013429057253</v>
+        <v>0.0002351472097393556</v>
       </c>
       <c r="E129">
-        <v>-0.7778615881295394</v>
+        <v>0.6145676245580356</v>
       </c>
       <c r="F129">
-        <v>0.5965089663771886</v>
+        <v>0.8190925276985065</v>
       </c>
       <c r="G129">
-        <v>235.0712759636248</v>
+        <v>9735.142449811021</v>
       </c>
       <c r="H129">
-        <v>352.7501672069034</v>
+        <v>5827.410761987579</v>
       </c>
       <c r="I129">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -4121,28 +4121,28 @@
     </row>
     <row r="130" spans="2:10">
       <c r="B130">
-        <v>925.6324717560624</v>
+        <v>16054.52010215386</v>
       </c>
       <c r="C130">
-        <v>478.194215808355</v>
+        <v>12998.42409165323</v>
       </c>
       <c r="D130">
-        <v>0.003514624635657746</v>
+        <v>-0.001022975697746399</v>
       </c>
       <c r="E130">
-        <v>-0.7780713203572922</v>
+        <v>0.5876375017236932</v>
       </c>
       <c r="F130">
-        <v>0.6078595512544624</v>
+        <v>0.7953934390045727</v>
       </c>
       <c r="G130">
-        <v>245.0063985148029</v>
+        <v>9659.483319911507</v>
       </c>
       <c r="H130">
-        <v>360.335899860581</v>
+        <v>5927.540408261041</v>
       </c>
       <c r="I130">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -4150,28 +4150,28 @@
     </row>
     <row r="131" spans="2:10">
       <c r="B131">
-        <v>918.8123753410099</v>
+        <v>16064.62746039519</v>
       </c>
       <c r="C131">
-        <v>448.1630620434565</v>
+        <v>12966.44838969797</v>
       </c>
       <c r="D131">
-        <v>0.002619804021125416</v>
+        <v>-0.007211160495984456</v>
       </c>
       <c r="E131">
-        <v>-0.8251039221792691</v>
+        <v>0.6051949583484901</v>
       </c>
       <c r="F131">
-        <v>0.6160225650873064</v>
+        <v>0.8021028475295535</v>
       </c>
       <c r="G131">
-        <v>256.1834113848784</v>
+        <v>9574.366798774556</v>
       </c>
       <c r="H131">
-        <v>368.8698490959684</v>
+        <v>6040.186260318686</v>
       </c>
       <c r="I131">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -4179,28 +4179,28 @@
     </row>
     <row r="132" spans="2:10">
       <c r="B132">
-        <v>906.3035799879035</v>
+        <v>15728.27391862393</v>
       </c>
       <c r="C132">
-        <v>470.4722367474075</v>
+        <v>13304.8706727424</v>
       </c>
       <c r="D132">
-        <v>-0.005467425276201089</v>
+        <v>-0.004925170600012544</v>
       </c>
       <c r="E132">
-        <v>-0.7839187366202274</v>
+        <v>0.5634392872927957</v>
       </c>
       <c r="F132">
-        <v>0.6066874665234234</v>
+        <v>0.7814038195120141</v>
       </c>
       <c r="G132">
-        <v>268.6023145738511</v>
+        <v>9479.792886400164</v>
       </c>
       <c r="H132">
-        <v>378.3520149130654</v>
+        <v>6165.348318160513</v>
       </c>
       <c r="I132">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -4208,28 +4208,28 @@
     </row>
     <row r="133" spans="2:10">
       <c r="B133">
-        <v>872.6700398870428</v>
+        <v>15454.56260534596</v>
       </c>
       <c r="C133">
-        <v>507.8293151366255</v>
+        <v>13497.84417064769</v>
       </c>
       <c r="D133">
-        <v>0.002811113200785695</v>
+        <v>0.0008235772656132748</v>
       </c>
       <c r="E133">
-        <v>-0.7849325356078247</v>
+        <v>0.5816872317056564</v>
       </c>
       <c r="F133">
-        <v>0.6283755666524921</v>
+        <v>0.8236966071650074</v>
       </c>
       <c r="G133">
-        <v>282.263108081721</v>
+        <v>9375.761582788335</v>
       </c>
       <c r="H133">
-        <v>388.7823973118722</v>
+        <v>6303.026581786524</v>
       </c>
       <c r="I133">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -4237,28 +4237,28 @@
     </row>
     <row r="134" spans="2:10">
       <c r="B134">
-        <v>848.9637610172369</v>
+        <v>15108.80797285617</v>
       </c>
       <c r="C134">
-        <v>502.5103151447499</v>
+        <v>13481.67931310513</v>
       </c>
       <c r="D134">
-        <v>0.004957989766740433</v>
+        <v>-0.00595199569897737</v>
       </c>
       <c r="E134">
-        <v>-0.8020232513463148</v>
+        <v>0.5938049618891489</v>
       </c>
       <c r="F134">
-        <v>0.5870335487184285</v>
+        <v>0.799471699346201</v>
       </c>
       <c r="G134">
-        <v>297.1657919084883</v>
+        <v>9262.272887939065</v>
       </c>
       <c r="H134">
-        <v>400.1609962923886</v>
+        <v>6453.221051196717</v>
       </c>
       <c r="I134">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -4266,28 +4266,28 @@
     </row>
     <row r="135" spans="2:10">
       <c r="B135">
-        <v>877.228748896463</v>
+        <v>14997.26149968369</v>
       </c>
       <c r="C135">
-        <v>508.9575963053693</v>
+        <v>13441.26088082809</v>
       </c>
       <c r="D135">
-        <v>-0.003969878634093191</v>
+        <v>-0.0007420187245988677</v>
       </c>
       <c r="E135">
-        <v>-0.8055190158681202</v>
+        <v>0.6492488915770788</v>
       </c>
       <c r="F135">
-        <v>0.5907365082524287</v>
+        <v>0.8232610982319869</v>
       </c>
       <c r="G135">
-        <v>313.3103660541528</v>
+        <v>9139.326801852356</v>
       </c>
       <c r="H135">
-        <v>412.4878118546148</v>
+        <v>6615.931726391093</v>
       </c>
       <c r="I135">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -4295,28 +4295,28 @@
     </row>
     <row r="136" spans="2:10">
       <c r="B136">
-        <v>852.6789763610667</v>
+        <v>15092.64888363624</v>
       </c>
       <c r="C136">
-        <v>566.3989202406806</v>
+        <v>13755.06680921966</v>
       </c>
       <c r="D136">
-        <v>-0.001012855796654653</v>
+        <v>-0.004591536612607001</v>
       </c>
       <c r="E136">
-        <v>-0.7925073660185875</v>
+        <v>0.6179346418427816</v>
       </c>
       <c r="F136">
-        <v>0.6174414043393976</v>
+        <v>0.8421695758741397</v>
       </c>
       <c r="G136">
-        <v>330.6968305187146</v>
+        <v>9006.923324528208</v>
       </c>
       <c r="H136">
-        <v>425.7628439985506</v>
+        <v>6791.158607369651</v>
       </c>
       <c r="I136">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -4324,28 +4324,28 @@
     </row>
     <row r="137" spans="2:10">
       <c r="B137">
-        <v>809.9189368724069</v>
+        <v>14666.77811234527</v>
       </c>
       <c r="C137">
-        <v>572.0718449095227</v>
+        <v>13892.99500191376</v>
       </c>
       <c r="D137">
-        <v>0.005703821419708187</v>
+        <v>0.0005928119224602995</v>
       </c>
       <c r="E137">
-        <v>-0.8074827614549316</v>
+        <v>0.6149450267862334</v>
       </c>
       <c r="F137">
-        <v>0.6059092967411545</v>
+        <v>0.7871906773676632</v>
       </c>
       <c r="G137">
-        <v>349.3251853021736</v>
+        <v>8865.062455966621</v>
       </c>
       <c r="H137">
-        <v>439.9860927241962</v>
+        <v>6978.901694132392</v>
       </c>
       <c r="I137">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J137">
         <v>0</v>
@@ -4353,28 +4353,28 @@
     </row>
     <row r="138" spans="2:10">
       <c r="B138">
-        <v>759.6808860551323</v>
+        <v>14363.40768458844</v>
       </c>
       <c r="C138">
-        <v>562.2243890024361</v>
+        <v>13904.80685905653</v>
       </c>
       <c r="D138">
-        <v>-0.007325117442026487</v>
+        <v>-0.005600485184918787</v>
       </c>
       <c r="E138">
-        <v>-0.777374275895918</v>
+        <v>0.6019566185067072</v>
       </c>
       <c r="F138">
-        <v>0.5709356371543926</v>
+        <v>0.792899828675195</v>
       </c>
       <c r="G138">
-        <v>369.1954304045299</v>
+        <v>8713.744196167596</v>
       </c>
       <c r="H138">
-        <v>455.1575580315515</v>
+        <v>7179.160986679316</v>
       </c>
       <c r="I138">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -4382,28 +4382,28 @@
     </row>
     <row r="139" spans="2:10">
       <c r="B139">
-        <v>734.6025445602736</v>
+        <v>13877.91089714842</v>
       </c>
       <c r="C139">
-        <v>569.7935310000676</v>
+        <v>14077.76263070481</v>
       </c>
       <c r="D139">
-        <v>0.005089956529693279</v>
+        <v>-0.0005289152785195186</v>
       </c>
       <c r="E139">
-        <v>-0.8036300667144949</v>
+        <v>0.5889193439654491</v>
       </c>
       <c r="F139">
-        <v>0.5891942899423722</v>
+        <v>0.7755929919999479</v>
       </c>
       <c r="G139">
-        <v>390.3075658257835</v>
+        <v>8552.968545131131</v>
       </c>
       <c r="H139">
-        <v>471.2772399206165</v>
+        <v>7391.936485010423</v>
       </c>
       <c r="I139">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -4411,28 +4411,28 @@
     </row>
     <row r="140" spans="2:10">
       <c r="B140">
-        <v>721.6626293116257</v>
+        <v>13661.15601496625</v>
       </c>
       <c r="C140">
-        <v>617.4902334713821</v>
+        <v>14412.48742136357</v>
       </c>
       <c r="D140">
-        <v>-0.006728772110624133</v>
+        <v>-0.0007022762239242341</v>
       </c>
       <c r="E140">
-        <v>-0.8141574261970893</v>
+        <v>0.5801181330050559</v>
       </c>
       <c r="F140">
-        <v>0.6115999816717063</v>
+        <v>0.7916408696184611</v>
       </c>
       <c r="G140">
-        <v>412.6615915659344</v>
+        <v>8382.735502857227</v>
       </c>
       <c r="H140">
-        <v>488.3451383913912</v>
+        <v>7617.228189125713</v>
       </c>
       <c r="I140">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -4440,28 +4440,28 @@
     </row>
     <row r="141" spans="2:10">
       <c r="B141">
-        <v>747.1156754015146</v>
+        <v>13464.31631321736</v>
       </c>
       <c r="C141">
-        <v>643.3070424637489</v>
+        <v>14621.94639730069</v>
       </c>
       <c r="D141">
-        <v>0.006448274443825615</v>
+        <v>-0.01009195737189367</v>
       </c>
       <c r="E141">
-        <v>-0.8294836293473824</v>
+        <v>0.5620498548185651</v>
       </c>
       <c r="F141">
-        <v>0.6496730760443699</v>
+        <v>0.7943004760454253</v>
       </c>
       <c r="G141">
-        <v>436.2575076249825</v>
+        <v>8203.045069345884</v>
       </c>
       <c r="H141">
-        <v>506.3612534438756</v>
+        <v>7855.036099025185</v>
       </c>
       <c r="I141">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -4469,28 +4469,28 @@
     </row>
     <row r="142" spans="2:10">
       <c r="B142">
-        <v>680.4916233990103</v>
+        <v>13038.80201907483</v>
       </c>
       <c r="C142">
-        <v>626.2830050693898</v>
+        <v>14752.73644908821</v>
       </c>
       <c r="D142">
-        <v>0.006509198594748349</v>
+        <v>0.006308058897116574</v>
       </c>
       <c r="E142">
-        <v>-0.7949795629913946</v>
+        <v>0.6225508159803252</v>
       </c>
       <c r="F142">
-        <v>0.5882801999287666</v>
+        <v>0.8035301272337254</v>
       </c>
       <c r="G142">
-        <v>461.0953140029279</v>
+        <v>8013.897244597102</v>
       </c>
       <c r="H142">
-        <v>525.3255850780697</v>
+        <v>8105.36021470884</v>
       </c>
       <c r="I142">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -4498,28 +4498,28 @@
     </row>
     <row r="143" spans="2:10">
       <c r="B143">
-        <v>630.2699179190213</v>
+        <v>12742.643152053</v>
       </c>
       <c r="C143">
-        <v>685.117538319693</v>
+        <v>15287.02834368371</v>
       </c>
       <c r="D143">
-        <v>0.00108115671193859</v>
+        <v>-0.002959314336603016</v>
       </c>
       <c r="E143">
-        <v>-0.8189384614383916</v>
+        <v>0.604954659963538</v>
       </c>
       <c r="F143">
-        <v>0.6449550264945455</v>
+        <v>0.7901889368874687</v>
       </c>
       <c r="G143">
-        <v>485.9331203808733</v>
+        <v>7824.74941984832</v>
       </c>
       <c r="H143">
-        <v>544.2899167122638</v>
+        <v>8355.684330392494</v>
       </c>
       <c r="I143">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -4527,28 +4527,28 @@
     </row>
     <row r="144" spans="2:10">
       <c r="B144">
-        <v>599.6579571472681</v>
+        <v>12860.29542941646</v>
       </c>
       <c r="C144">
-        <v>699.3727113010062</v>
+        <v>15857.53858048587</v>
       </c>
       <c r="D144">
-        <v>0.002233017072821422</v>
+        <v>0.002384647582360613</v>
       </c>
       <c r="E144">
-        <v>-0.7754732673759043</v>
+        <v>0.625105427494799</v>
       </c>
       <c r="F144">
-        <v>0.6040001147286693</v>
+        <v>0.7653275101527418</v>
       </c>
       <c r="G144">
-        <v>510.7709267588187</v>
+        <v>7635.601595099538</v>
       </c>
       <c r="H144">
-        <v>563.2542483464579</v>
+        <v>8606.00844607615</v>
       </c>
       <c r="I144">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -4556,28 +4556,28 @@
     </row>
     <row r="145" spans="2:10">
       <c r="B145">
-        <v>603.2103850610941</v>
+        <v>12416.05612119116</v>
       </c>
       <c r="C145">
-        <v>700.6755458692222</v>
+        <v>15885.42312004067</v>
       </c>
       <c r="D145">
-        <v>-0.007575155618556171</v>
+        <v>-0.00226275798842775</v>
       </c>
       <c r="E145">
-        <v>-0.7926687546764764</v>
+        <v>0.6101075993980314</v>
       </c>
       <c r="F145">
-        <v>0.6156971325432518</v>
+        <v>0.7574858015820758</v>
       </c>
       <c r="G145">
-        <v>535.6087331367642</v>
+        <v>7446.453770350756</v>
       </c>
       <c r="H145">
-        <v>582.218579980652</v>
+        <v>8856.332561759806</v>
       </c>
       <c r="I145">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -4585,28 +4585,28 @@
     </row>
     <row r="146" spans="2:10">
       <c r="B146">
-        <v>574.5709783857013</v>
+        <v>12172.65133705371</v>
       </c>
       <c r="C146">
-        <v>714.7412542974844</v>
+        <v>16209.56385767472</v>
       </c>
       <c r="D146">
-        <v>-0.0005741621103686624</v>
+        <v>-0.0005120774531731132</v>
       </c>
       <c r="E146">
-        <v>-0.7828787586732125</v>
+        <v>0.6073643570212628</v>
       </c>
       <c r="F146">
-        <v>0.6140247863429575</v>
+        <v>0.8008258280348552</v>
       </c>
       <c r="G146">
-        <v>560.4465395147096</v>
+        <v>7257.305945601974</v>
       </c>
       <c r="H146">
-        <v>601.182911614846</v>
+        <v>9106.656677443461</v>
       </c>
       <c r="I146">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -4614,28 +4614,28 @@
     </row>
     <row r="147" spans="2:10">
       <c r="B147">
-        <v>521.0244869106792</v>
+        <v>11554.89378588582</v>
       </c>
       <c r="C147">
-        <v>662.8013499412467</v>
+        <v>16269.13278919069</v>
       </c>
       <c r="D147">
-        <v>0.002114899031579983</v>
+        <v>-0.002618145887357329</v>
       </c>
       <c r="E147">
-        <v>-0.7213682480627126</v>
+        <v>0.6040543476692093</v>
       </c>
       <c r="F147">
-        <v>0.602758943232118</v>
+        <v>0.7928897797931564</v>
       </c>
       <c r="G147">
-        <v>584.0424555737577</v>
+        <v>7077.615512090631</v>
       </c>
       <c r="H147">
-        <v>619.1990266673304</v>
+        <v>9344.464587342934</v>
       </c>
       <c r="I147">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -4643,28 +4643,28 @@
     </row>
     <row r="148" spans="2:10">
       <c r="B148">
-        <v>501.833232744374</v>
+        <v>11310.46770961419</v>
       </c>
       <c r="C148">
-        <v>610.544444850937</v>
+        <v>16446.98631326546</v>
       </c>
       <c r="D148">
-        <v>-0.002164074096320235</v>
+        <v>0.004592032384636018</v>
       </c>
       <c r="E148">
-        <v>-0.8035532221795086</v>
+        <v>0.6222870899490259</v>
       </c>
       <c r="F148">
-        <v>0.6362115370451701</v>
+        <v>0.7977879769322936</v>
       </c>
       <c r="G148">
-        <v>606.3964813139086</v>
+        <v>6907.382469816726</v>
       </c>
       <c r="H148">
-        <v>636.2669251381051</v>
+        <v>9569.756291458223</v>
       </c>
       <c r="I148">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -4672,28 +4672,28 @@
     </row>
     <row r="149" spans="2:10">
       <c r="B149">
-        <v>465.666155600745</v>
+        <v>11279.90620099253</v>
       </c>
       <c r="C149">
-        <v>601.1117524346353</v>
+        <v>16477.16564606011</v>
       </c>
       <c r="D149">
-        <v>-0.004474083605602098</v>
+        <v>-0.003217449439210413</v>
       </c>
       <c r="E149">
-        <v>-0.808995205807207</v>
+        <v>0.5829016815381118</v>
       </c>
       <c r="F149">
-        <v>0.607728676129483</v>
+        <v>0.7960183161916904</v>
       </c>
       <c r="G149">
-        <v>627.5086167351621</v>
+        <v>6746.606818780261</v>
       </c>
       <c r="H149">
-        <v>652.38660702717</v>
+        <v>9782.531789789329</v>
       </c>
       <c r="I149">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -4701,28 +4701,28 @@
     </row>
     <row r="150" spans="2:10">
       <c r="B150">
-        <v>457.5655553509132</v>
+        <v>11330.79899812848</v>
       </c>
       <c r="C150">
-        <v>549.3408086851636</v>
+        <v>16449.86147518554</v>
       </c>
       <c r="D150">
-        <v>0.01090811885902639</v>
+        <v>-0.003700585628288589</v>
       </c>
       <c r="E150">
-        <v>-0.8040096270902245</v>
+        <v>0.5955737195408335</v>
       </c>
       <c r="F150">
-        <v>0.5704565403649002</v>
+        <v>0.7607917283784236</v>
       </c>
       <c r="G150">
-        <v>647.3788618375185</v>
+        <v>6595.288558981235</v>
       </c>
       <c r="H150">
-        <v>667.5580723345253</v>
+        <v>9982.791082336253</v>
       </c>
       <c r="I150">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -4730,28 +4730,28 @@
     </row>
     <row r="151" spans="2:10">
       <c r="B151">
-        <v>445.893595962056</v>
+        <v>10577.14848838452</v>
       </c>
       <c r="C151">
-        <v>545.2048932059334</v>
+        <v>16563.07530085216</v>
       </c>
       <c r="D151">
-        <v>0.004993362041227057</v>
+        <v>0.004617738134053777</v>
       </c>
       <c r="E151">
-        <v>-0.7848436953691613</v>
+        <v>0.6325921571424182</v>
       </c>
       <c r="F151">
-        <v>0.5769561119862427</v>
+        <v>0.7942014422698624</v>
       </c>
       <c r="G151">
-        <v>666.0072166209775</v>
+        <v>6453.427690419649</v>
       </c>
       <c r="H151">
-        <v>681.7813210601709</v>
+        <v>10170.53416909899</v>
       </c>
       <c r="I151">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -4759,28 +4759,28 @@
     </row>
     <row r="152" spans="2:10">
       <c r="B152">
-        <v>420.1948856414886</v>
+        <v>10719.60964340461</v>
       </c>
       <c r="C152">
-        <v>489.7462177623365</v>
+        <v>16166.34170544794</v>
       </c>
       <c r="D152">
-        <v>0.004376236620640481</v>
+        <v>0.007560601374719624</v>
       </c>
       <c r="E152">
-        <v>-0.783635219995426</v>
+        <v>0.6017143924030139</v>
       </c>
       <c r="F152">
-        <v>0.5663295788049888</v>
+        <v>0.7831361909599789</v>
       </c>
       <c r="G152">
-        <v>683.3936810855392</v>
+        <v>6321.024213095501</v>
       </c>
       <c r="H152">
-        <v>695.0563532041067</v>
+        <v>10345.76105007755</v>
       </c>
       <c r="I152">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -4788,28 +4788,28 @@
     </row>
     <row r="153" spans="2:10">
       <c r="B153">
-        <v>386.3149546095127</v>
+        <v>10177.35735828544</v>
       </c>
       <c r="C153">
-        <v>490.7184399253857</v>
+        <v>15784.24060123</v>
       </c>
       <c r="D153">
-        <v>0.004526197758522555</v>
+        <v>0.001335792639786178</v>
       </c>
       <c r="E153">
-        <v>-0.8146170160798223</v>
+        <v>0.6291906278453615</v>
       </c>
       <c r="F153">
-        <v>0.6159619961425619</v>
+        <v>0.7394490538377732</v>
       </c>
       <c r="G153">
-        <v>699.5382552312037</v>
+        <v>6198.078127008793</v>
       </c>
       <c r="H153">
-        <v>707.3831687663328</v>
+        <v>10508.47172527193</v>
       </c>
       <c r="I153">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -4817,28 +4817,28 @@
     </row>
     <row r="154" spans="2:10">
       <c r="B154">
-        <v>363.2677932469811</v>
+        <v>10109.70062328849</v>
       </c>
       <c r="C154">
-        <v>514.2015805930048</v>
+        <v>15314.67263939495</v>
       </c>
       <c r="D154">
-        <v>0.007094709928160223</v>
+        <v>0.006855523222689681</v>
       </c>
       <c r="E154">
-        <v>-0.7931117185659227</v>
+        <v>0.6062776390964019</v>
       </c>
       <c r="F154">
-        <v>0.6175986002901688</v>
+        <v>0.8030714769391393</v>
       </c>
       <c r="G154">
-        <v>714.4409390579709</v>
+        <v>6084.589432159523</v>
       </c>
       <c r="H154">
-        <v>718.7617677468493</v>
+        <v>10658.66619468212</v>
       </c>
       <c r="I154">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -4846,28 +4846,28 @@
     </row>
     <row r="155" spans="2:10">
       <c r="B155">
-        <v>344.8908772257047</v>
+        <v>9829.947662676992</v>
       </c>
       <c r="C155">
-        <v>454.6224145336738</v>
+        <v>15128.79171524361</v>
       </c>
       <c r="D155">
-        <v>0.002195431292769077</v>
+        <v>-0.004270381178318694</v>
       </c>
       <c r="E155">
-        <v>-0.7690593695159595</v>
+        <v>0.6077361905328882</v>
       </c>
       <c r="F155">
-        <v>0.5637364729796888</v>
+        <v>0.7980877660713031</v>
       </c>
       <c r="G155">
-        <v>728.1017325658408</v>
+        <v>5980.558128547693</v>
       </c>
       <c r="H155">
-        <v>729.192150145656</v>
+        <v>10796.34445830813</v>
       </c>
       <c r="I155">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -4875,28 +4875,28 @@
     </row>
     <row r="156" spans="2:10">
       <c r="B156">
-        <v>320.6090226735082</v>
+        <v>9944.924839369447</v>
       </c>
       <c r="C156">
-        <v>436.2141811267635</v>
+        <v>14930.79886405886</v>
       </c>
       <c r="D156">
-        <v>0.0006290344826172963</v>
+        <v>0.004178119900361948</v>
       </c>
       <c r="E156">
-        <v>-0.7545956495693186</v>
+        <v>0.5822805075195783</v>
       </c>
       <c r="F156">
-        <v>0.6430477224445413</v>
+        <v>0.8053676578078708</v>
       </c>
       <c r="G156">
-        <v>740.5206357548135</v>
+        <v>5885.984216173301</v>
       </c>
       <c r="H156">
-        <v>738.6743159627531</v>
+        <v>10921.50651614996</v>
       </c>
       <c r="I156">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -4904,28 +4904,28 @@
     </row>
     <row r="157" spans="2:10">
       <c r="B157">
-        <v>269.3731355414936</v>
+        <v>9535.797649493585</v>
       </c>
       <c r="C157">
-        <v>422.9344033420212</v>
+        <v>14896.68231526344</v>
       </c>
       <c r="D157">
-        <v>-0.002666993247561188</v>
+        <v>-0.005458288468654077</v>
       </c>
       <c r="E157">
-        <v>-0.825745836524488</v>
+        <v>0.5829491286835561</v>
       </c>
       <c r="F157">
-        <v>0.571796215770743</v>
+        <v>0.7811940949966617</v>
       </c>
       <c r="G157">
-        <v>751.697648624889</v>
+        <v>5800.86769503635</v>
       </c>
       <c r="H157">
-        <v>747.2082651981405</v>
+        <v>11034.1523682076</v>
       </c>
       <c r="I157">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -4933,28 +4933,28 @@
     </row>
     <row r="158" spans="2:10">
       <c r="B158">
-        <v>281.526925679574</v>
+        <v>9496.165301210958</v>
       </c>
       <c r="C158">
-        <v>380.6016857594453</v>
+        <v>14481.60336773119</v>
       </c>
       <c r="D158">
-        <v>0.004230588401649914</v>
+        <v>-0.0007857033715431287</v>
       </c>
       <c r="E158">
-        <v>-0.7732139215348586</v>
+        <v>0.644952930391138</v>
       </c>
       <c r="F158">
-        <v>0.5496897686409206</v>
+        <v>0.7850343480345813</v>
       </c>
       <c r="G158">
-        <v>761.6327711760672</v>
+        <v>5725.208565136837</v>
       </c>
       <c r="H158">
-        <v>754.7939978518181</v>
+        <v>11134.28201448107</v>
       </c>
       <c r="I158">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -4962,28 +4962,28 @@
     </row>
     <row r="159" spans="2:10">
       <c r="B159">
-        <v>290.7424943986809</v>
+        <v>9414.605223310789</v>
       </c>
       <c r="C159">
-        <v>321.3112526448357</v>
+        <v>14328.3348811939</v>
       </c>
       <c r="D159">
-        <v>-0.001866818606358979</v>
+        <v>-0.005806364832556425</v>
       </c>
       <c r="E159">
-        <v>-0.7984836450762773</v>
+        <v>0.6127903541090686</v>
       </c>
       <c r="F159">
-        <v>0.602825660215635</v>
+        <v>0.7974321744989502</v>
       </c>
       <c r="G159">
-        <v>770.3260034083481</v>
+        <v>5659.006826474763</v>
       </c>
       <c r="H159">
-        <v>761.431513923786</v>
+        <v>11221.89545497035</v>
       </c>
       <c r="I159">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -4991,28 +4991,28 @@
     </row>
     <row r="160" spans="2:10">
       <c r="B160">
-        <v>283.097846494496</v>
+        <v>9572.655338209952</v>
       </c>
       <c r="C160">
-        <v>378.8119528630808</v>
+        <v>14568.19399035247</v>
       </c>
       <c r="D160">
-        <v>0.001736467222698338</v>
+        <v>-0.006388718773804047</v>
       </c>
       <c r="E160">
-        <v>-0.8640027599930469</v>
+        <v>0.5924930410544222</v>
       </c>
       <c r="F160">
-        <v>0.6295277249953767</v>
+        <v>0.7877633688478018</v>
       </c>
       <c r="G160">
-        <v>777.7773453217318</v>
+        <v>5602.262479050129</v>
       </c>
       <c r="H160">
-        <v>767.1208134140443</v>
+        <v>11296.99268967544</v>
       </c>
       <c r="I160">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -5020,28 +5020,28 @@
     </row>
     <row r="161" spans="2:10">
       <c r="B161">
-        <v>260.8009371732351</v>
+        <v>9405.985457889099</v>
       </c>
       <c r="C161">
-        <v>343.4941183364014</v>
+        <v>14379.65811484956</v>
       </c>
       <c r="D161">
-        <v>-0.002722381433398473</v>
+        <v>-0.00311713642510417</v>
       </c>
       <c r="E161">
-        <v>-0.804456539020811</v>
+        <v>0.5801224405227202</v>
       </c>
       <c r="F161">
-        <v>0.5910925544135237</v>
+        <v>0.7866242429758985</v>
       </c>
       <c r="G161">
-        <v>783.9867969162182</v>
+        <v>5554.975522862933</v>
       </c>
       <c r="H161">
-        <v>771.8618963225928</v>
+        <v>11359.57371859636</v>
       </c>
       <c r="I161">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -5049,28 +5049,28 @@
     </row>
     <row r="162" spans="2:10">
       <c r="B162">
-        <v>264.5845059641166</v>
+        <v>9221.90918906853</v>
       </c>
       <c r="C162">
-        <v>330.6476302175344</v>
+        <v>14107.64873502194</v>
       </c>
       <c r="D162">
-        <v>0.001717271895286426</v>
+        <v>0.003182728662878391</v>
       </c>
       <c r="E162">
-        <v>-0.7733871823443539</v>
+        <v>0.6306467806660375</v>
       </c>
       <c r="F162">
-        <v>0.5723272336638984</v>
+        <v>0.7915276587918901</v>
       </c>
       <c r="G162">
-        <v>788.9543581918073</v>
+        <v>5517.145957913176</v>
       </c>
       <c r="H162">
-        <v>775.6547626494316</v>
+        <v>11409.63854173309</v>
       </c>
       <c r="I162">
-        <v>0.6521022222222222</v>
+        <v>2.217879245283018</v>
       </c>
       <c r="J162">
         <v>0</v>
